--- a/Saved_file/EM003/2026_06/work_logs_EM003_2026_06.xlsx
+++ b/Saved_file/EM003/2026_06/work_logs_EM003_2026_06.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-06-05 10:33:57</t>
+          <t>2026-06-11 18:36:07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.935</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20260605_000</t>
+          <t>SESS_20260611_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -511,34 +511,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-11</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10:33:57</t>
+          <t>18:36:07</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-06-14 15:22:58</t>
+          <t>2026-06-26 14:24:09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.389</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20260614_001</t>
+          <t>SESS_20260626_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -561,34 +561,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15:22:58</t>
+          <t>14:24:09</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-06-07 09:14:13</t>
+          <t>2026-06-24 14:36:04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.415</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20260607_002</t>
+          <t>SESS_20260624_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,29 +611,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-06-07</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>09:14:13</t>
+          <t>14:36:04</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-06-08 10:32:13</t>
+          <t>2026-06-24 09:15:17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SESS_20260608_003</t>
+          <t>SESS_20260624_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -661,12 +661,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10:32:13</t>
+          <t>09:15:17</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -678,17 +678,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-06-19 12:36:47</t>
+          <t>2026-06-09 17:00:18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.442</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20260619_004</t>
+          <t>SESS_20260609_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -711,34 +711,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>12:36:47</t>
+          <t>17:00:18</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-06-16 17:08:11</t>
+          <t>2026-06-02 11:38:29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.738</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SESS_20260616_005</t>
+          <t>SESS_20260602_005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -761,34 +761,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>17:08:11</t>
+          <t>11:38:29</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-06-13 13:16:35</t>
+          <t>2026-06-18 15:36:18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.237</t>
+          <t>Mouse anomaly detected - Score: 0.925</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SESS_20260613_006</t>
+          <t>SESS_20260618_006</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -811,34 +811,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>13:16:35</t>
+          <t>15:36:18</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-06-24 14:59:05</t>
+          <t>2026-06-13 12:31:11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.287</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SESS_20260624_007</t>
+          <t>SESS_20260613_007</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -861,34 +861,34 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-06-24</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14:59:05</t>
+          <t>12:31:11</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-06-21 19:40:38</t>
+          <t>2026-06-27 11:03:38</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.895</t>
+          <t>Face verification failed - Similarity: 0.217</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SESS_20260621_008</t>
+          <t>SESS_20260627_008</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -911,34 +911,34 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-06-21</t>
+          <t>2026-06-27</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>19:40:38</t>
+          <t>11:03:38</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-06-16 17:17:24</t>
+          <t>2026-06-23 18:46:43</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.709</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SESS_20260616_009</t>
+          <t>SESS_20260623_009</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -961,15 +961,265 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>17:17:24</t>
+          <t>18:46:43</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-06-17 12:03:31</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SESSION_START</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Browser suspicious activity detected</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SESS_20260617_010</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026-06-17</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>12:03:31</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-06-09 16:05:02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mouse anomaly detected - Score: 0.791</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SESS_20260609_011</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026-06-09</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>16:05:02</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-06-14 10:25:46</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LIVENESS_CHECK</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Face verification failed - Similarity: 0.496</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SESS_20260614_012</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026-06-14</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>10:25:46</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Face</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-06-09 18:42:26</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LIVENESS_CHECK</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Face verification failed - Similarity: 0.253</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SESS_20260609_013</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-06-09</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>18:42:26</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Face</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-06-06 15:31:44</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ANOMALY_DETECTED</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mouse anomaly detected - Score: 0.813</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SESS_20260606_014</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-06-06</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>15:31:44</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>Mouse</t>
         </is>
@@ -1129,7 +1379,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-06-01 14:57:35</t>
+          <t>2026-06-01 12:47:40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1139,7 +1389,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.251</t>
+          <t>Mouse session - Score: 0.445</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1167,7 +1417,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14:57:35</t>
+          <t>12:47:40</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1176,58 +1426,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>9114</v>
+        <v>14689</v>
       </c>
       <c r="L2" t="n">
-        <v>9114</v>
+        <v>14689</v>
       </c>
       <c r="M2" t="n">
-        <v>26835.59</v>
+        <v>32740.81</v>
       </c>
       <c r="N2" t="n">
-        <v>16101.35</v>
+        <v>19644.48</v>
       </c>
       <c r="O2" t="n">
-        <v>10734.23</v>
+        <v>13096.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="R2" t="n">
-        <v>120.4</v>
+        <v>112.79</v>
       </c>
       <c r="S2" t="n">
-        <v>222.88</v>
+        <v>290.29</v>
       </c>
       <c r="T2" t="n">
-        <v>40.51</v>
+        <v>19.14</v>
       </c>
       <c r="U2" t="n">
-        <v>133.73</v>
+        <v>174.17</v>
       </c>
       <c r="V2" t="n">
-        <v>89.15000000000001</v>
+        <v>116.12</v>
       </c>
       <c r="W2" t="n">
-        <v>14.62</v>
+        <v>19.63</v>
       </c>
       <c r="X2" t="n">
-        <v>2.79</v>
+        <v>26.54</v>
       </c>
       <c r="Y2" t="n">
-        <v>120.4</v>
+        <v>112.79</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.251</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-06-01 11:15:09</t>
+          <t>2026-06-01 16:39:59</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1237,7 +1487,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.389</t>
+          <t>Mouse session - Score: 0.294</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1265,7 +1515,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11:15:09</t>
+          <t>16:39:59</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1274,58 +1524,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>19855</v>
+        <v>18283</v>
       </c>
       <c r="L3" t="n">
-        <v>19855</v>
+        <v>18283</v>
       </c>
       <c r="M3" t="n">
-        <v>12530.13</v>
+        <v>23721.99</v>
       </c>
       <c r="N3" t="n">
-        <v>7518.08</v>
+        <v>14233.19</v>
       </c>
       <c r="O3" t="n">
-        <v>5012.05</v>
+        <v>9488.790000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R3" t="n">
-        <v>177.78</v>
+        <v>112.36</v>
       </c>
       <c r="S3" t="n">
-        <v>70.48</v>
+        <v>211.13</v>
       </c>
       <c r="T3" t="n">
-        <v>33.63</v>
+        <v>14.08</v>
       </c>
       <c r="U3" t="n">
-        <v>42.29</v>
+        <v>126.68</v>
       </c>
       <c r="V3" t="n">
-        <v>28.19</v>
+        <v>84.45</v>
       </c>
       <c r="W3" t="n">
-        <v>2.45</v>
+        <v>20.35</v>
       </c>
       <c r="X3" t="n">
-        <v>17.09</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.78</v>
+        <v>112.36</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.389</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-06-01 10:04:03</t>
+          <t>2026-06-01 13:11:37</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1335,7 +1585,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.259</t>
+          <t>Mouse session - Score: 0.852</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1350,11 +1600,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1363,7 +1613,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10:04:03</t>
+          <t>13:11:37</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1372,58 +1622,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>11785</v>
+        <v>26277</v>
       </c>
       <c r="L4" t="n">
-        <v>11785</v>
+        <v>26277</v>
       </c>
       <c r="M4" t="n">
-        <v>19582.79</v>
+        <v>20772.07</v>
       </c>
       <c r="N4" t="n">
-        <v>11749.67</v>
+        <v>12463.24</v>
       </c>
       <c r="O4" t="n">
-        <v>7833.11</v>
+        <v>8308.83</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>147.56</v>
+        <v>35.8</v>
       </c>
       <c r="S4" t="n">
-        <v>132.71</v>
+        <v>580.3</v>
       </c>
       <c r="T4" t="n">
-        <v>43.58</v>
+        <v>5.54</v>
       </c>
       <c r="U4" t="n">
-        <v>79.62</v>
+        <v>348.18</v>
       </c>
       <c r="V4" t="n">
-        <v>53.08</v>
+        <v>232.12</v>
       </c>
       <c r="W4" t="n">
-        <v>18.93</v>
+        <v>2.17</v>
       </c>
       <c r="X4" t="n">
-        <v>19.85</v>
+        <v>6.71</v>
       </c>
       <c r="Y4" t="n">
-        <v>147.56</v>
+        <v>35.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.259</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-06-01 11:37:02</t>
+          <t>2026-06-01 13:26:18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1433,7 +1683,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.405</t>
+          <t>Mouse session - Score: 0.848</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1448,11 +1698,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1461,7 +1711,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11:37:02</t>
+          <t>13:26:18</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1470,58 +1720,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>10840</v>
+        <v>25369</v>
       </c>
       <c r="L5" t="n">
-        <v>10840</v>
+        <v>25369</v>
       </c>
       <c r="M5" t="n">
-        <v>5269.88</v>
+        <v>9677.620000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>3161.93</v>
+        <v>5806.57</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.95</v>
+        <v>3871.05</v>
       </c>
       <c r="P5" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="R5" t="n">
-        <v>139.88</v>
+        <v>57.64</v>
       </c>
       <c r="S5" t="n">
-        <v>37.68</v>
+        <v>167.9</v>
       </c>
       <c r="T5" t="n">
-        <v>23.81</v>
+        <v>26.25</v>
       </c>
       <c r="U5" t="n">
-        <v>22.61</v>
+        <v>100.74</v>
       </c>
       <c r="V5" t="n">
-        <v>15.07</v>
+        <v>67.16</v>
       </c>
       <c r="W5" t="n">
-        <v>13.47</v>
+        <v>19.1</v>
       </c>
       <c r="X5" t="n">
-        <v>9.09</v>
+        <v>19.81</v>
       </c>
       <c r="Y5" t="n">
-        <v>139.88</v>
+        <v>57.64</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.405</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-06-02 12:12:46</t>
+          <t>2026-06-02 11:45:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1531,7 +1781,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.805</t>
+          <t>Mouse session - Score: 0.416</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1546,11 +1796,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1559,7 +1809,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>12:12:46</t>
+          <t>11:45:36</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1568,58 +1818,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>18198</v>
+        <v>27134</v>
       </c>
       <c r="L6" t="n">
-        <v>18198</v>
+        <v>27134</v>
       </c>
       <c r="M6" t="n">
-        <v>19291.12</v>
+        <v>28756.95</v>
       </c>
       <c r="N6" t="n">
-        <v>11574.67</v>
+        <v>17254.17</v>
       </c>
       <c r="O6" t="n">
-        <v>7716.45</v>
+        <v>11502.78</v>
       </c>
       <c r="P6" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q6" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="R6" t="n">
-        <v>159.29</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="S6" t="n">
-        <v>121.11</v>
+        <v>421.08</v>
       </c>
       <c r="T6" t="n">
-        <v>15.71</v>
+        <v>14.22</v>
       </c>
       <c r="U6" t="n">
-        <v>72.66</v>
+        <v>252.65</v>
       </c>
       <c r="V6" t="n">
-        <v>48.44</v>
+        <v>168.43</v>
       </c>
       <c r="W6" t="n">
-        <v>14.63</v>
+        <v>26.4</v>
       </c>
       <c r="X6" t="n">
-        <v>3.27</v>
+        <v>23.86</v>
       </c>
       <c r="Y6" t="n">
-        <v>159.29</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.805</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-06-02 09:35:38</t>
+          <t>2026-06-02 11:54:23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1629,7 +1879,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.278</t>
+          <t>Mouse session - Score: 0.306</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1657,7 +1907,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09:35:38</t>
+          <t>11:54:23</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1666,58 +1916,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>26961</v>
+        <v>21030</v>
       </c>
       <c r="L7" t="n">
-        <v>26961</v>
+        <v>21030</v>
       </c>
       <c r="M7" t="n">
-        <v>25858.28</v>
+        <v>24162.31</v>
       </c>
       <c r="N7" t="n">
-        <v>15514.97</v>
+        <v>14497.38</v>
       </c>
       <c r="O7" t="n">
-        <v>10343.31</v>
+        <v>9664.92</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="R7" t="n">
-        <v>89.36</v>
+        <v>156.6</v>
       </c>
       <c r="S7" t="n">
-        <v>289.37</v>
+        <v>154.3</v>
       </c>
       <c r="T7" t="n">
-        <v>12.8</v>
+        <v>17.61</v>
       </c>
       <c r="U7" t="n">
-        <v>173.62</v>
+        <v>92.58</v>
       </c>
       <c r="V7" t="n">
-        <v>115.75</v>
+        <v>61.72</v>
       </c>
       <c r="W7" t="n">
-        <v>15.25</v>
+        <v>12.65</v>
       </c>
       <c r="X7" t="n">
-        <v>19.18</v>
+        <v>26.71</v>
       </c>
       <c r="Y7" t="n">
-        <v>89.36</v>
+        <v>156.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.278</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-06-02 11:39:19</t>
+          <t>2026-06-02 14:37:07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1727,7 +1977,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.310</t>
+          <t>Mouse session - Score: 0.285</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1755,7 +2005,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11:39:19</t>
+          <t>14:37:07</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1764,58 +2014,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>19354</v>
+        <v>19575</v>
       </c>
       <c r="L8" t="n">
-        <v>19354</v>
+        <v>19575</v>
       </c>
       <c r="M8" t="n">
-        <v>5119.68</v>
+        <v>35503.56</v>
       </c>
       <c r="N8" t="n">
-        <v>3071.81</v>
+        <v>21302.14</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.87</v>
+        <v>14201.43</v>
       </c>
       <c r="P8" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="R8" t="n">
-        <v>115.31</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>44.4</v>
+        <v>456.25</v>
       </c>
       <c r="T8" t="n">
-        <v>5.89</v>
+        <v>49.29</v>
       </c>
       <c r="U8" t="n">
-        <v>26.64</v>
+        <v>273.75</v>
       </c>
       <c r="V8" t="n">
-        <v>17.76</v>
+        <v>182.5</v>
       </c>
       <c r="W8" t="n">
-        <v>3.13</v>
+        <v>13.03</v>
       </c>
       <c r="X8" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="Y8" t="n">
-        <v>115.31</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.31</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-06-02 17:52:48</t>
+          <t>2026-06-02 13:04:52</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1825,7 +2075,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.420</t>
+          <t>Mouse session - Score: 0.293</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1853,7 +2103,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>17:52:48</t>
+          <t>13:04:52</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1862,58 +2112,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>10721</v>
+        <v>15989</v>
       </c>
       <c r="L9" t="n">
-        <v>10721</v>
+        <v>15989</v>
       </c>
       <c r="M9" t="n">
-        <v>22442.4</v>
+        <v>6773.64</v>
       </c>
       <c r="N9" t="n">
-        <v>13465.44</v>
+        <v>4064.18</v>
       </c>
       <c r="O9" t="n">
-        <v>8976.959999999999</v>
+        <v>2709.45</v>
       </c>
       <c r="P9" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="Q9" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="R9" t="n">
-        <v>131.68</v>
+        <v>108.22</v>
       </c>
       <c r="S9" t="n">
-        <v>170.43</v>
+        <v>62.59</v>
       </c>
       <c r="T9" t="n">
-        <v>34.43</v>
+        <v>5.94</v>
       </c>
       <c r="U9" t="n">
-        <v>102.26</v>
+        <v>37.55</v>
       </c>
       <c r="V9" t="n">
-        <v>68.17</v>
+        <v>25.04</v>
       </c>
       <c r="W9" t="n">
-        <v>11.57</v>
+        <v>25.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8.82</v>
+        <v>25.78</v>
       </c>
       <c r="Y9" t="n">
-        <v>131.68</v>
+        <v>108.22</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.42</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-06-03 11:00:00</t>
+          <t>2026-06-03 12:59:09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1923,7 +2173,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.393</t>
+          <t>Mouse session - Score: 0.440</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1951,7 +2201,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:59:09</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1960,58 +2210,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>14208</v>
+        <v>15342</v>
       </c>
       <c r="L10" t="n">
-        <v>14208</v>
+        <v>15342</v>
       </c>
       <c r="M10" t="n">
-        <v>35768.67</v>
+        <v>16668.82</v>
       </c>
       <c r="N10" t="n">
-        <v>21461.2</v>
+        <v>10001.29</v>
       </c>
       <c r="O10" t="n">
-        <v>14307.47</v>
+        <v>6667.53</v>
       </c>
       <c r="P10" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="R10" t="n">
-        <v>57.77</v>
+        <v>30.93</v>
       </c>
       <c r="S10" t="n">
-        <v>619.1900000000001</v>
+        <v>538.89</v>
       </c>
       <c r="T10" t="n">
-        <v>38.17</v>
+        <v>20.29</v>
       </c>
       <c r="U10" t="n">
-        <v>371.51</v>
+        <v>323.33</v>
       </c>
       <c r="V10" t="n">
-        <v>247.68</v>
+        <v>215.56</v>
       </c>
       <c r="W10" t="n">
-        <v>15.32</v>
+        <v>26.59</v>
       </c>
       <c r="X10" t="n">
-        <v>4.25</v>
+        <v>10.55</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.77</v>
+        <v>30.93</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.393</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-06-03 10:24:58</t>
+          <t>2026-06-03 14:19:35</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2021,7 +2271,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.379</t>
+          <t>Mouse session - Score: 0.381</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2049,7 +2299,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10:24:58</t>
+          <t>14:19:35</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2058,58 +2308,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>29480</v>
+        <v>7664</v>
       </c>
       <c r="L11" t="n">
-        <v>29480</v>
+        <v>7664</v>
       </c>
       <c r="M11" t="n">
-        <v>18826.11</v>
+        <v>25410.84</v>
       </c>
       <c r="N11" t="n">
-        <v>11295.66</v>
+        <v>15246.5</v>
       </c>
       <c r="O11" t="n">
-        <v>7530.44</v>
+        <v>10164.34</v>
       </c>
       <c r="P11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>154.51</v>
+        <v>113.97</v>
       </c>
       <c r="S11" t="n">
-        <v>121.85</v>
+        <v>222.96</v>
       </c>
       <c r="T11" t="n">
-        <v>33.92</v>
+        <v>19.1</v>
       </c>
       <c r="U11" t="n">
-        <v>73.11</v>
+        <v>133.78</v>
       </c>
       <c r="V11" t="n">
-        <v>48.74</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="W11" t="n">
-        <v>5.4</v>
+        <v>25.53</v>
       </c>
       <c r="X11" t="n">
-        <v>6.45</v>
+        <v>9.94</v>
       </c>
       <c r="Y11" t="n">
-        <v>154.51</v>
+        <v>113.97</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-06-03 15:06:42</t>
+          <t>2026-06-03 17:45:57</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2119,7 +2369,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.348</t>
+          <t>Mouse session - Score: 0.357</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2147,7 +2397,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15:06:42</t>
+          <t>17:45:57</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2156,58 +2406,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>17868</v>
+        <v>18176</v>
       </c>
       <c r="L12" t="n">
-        <v>17868</v>
+        <v>18176</v>
       </c>
       <c r="M12" t="n">
-        <v>10672.82</v>
+        <v>30326.69</v>
       </c>
       <c r="N12" t="n">
-        <v>6403.69</v>
+        <v>18196.01</v>
       </c>
       <c r="O12" t="n">
-        <v>4269.13</v>
+        <v>12130.68</v>
       </c>
       <c r="P12" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R12" t="n">
-        <v>105.8</v>
+        <v>147.86</v>
       </c>
       <c r="S12" t="n">
-        <v>100.87</v>
+        <v>205.1</v>
       </c>
       <c r="T12" t="n">
-        <v>7.61</v>
+        <v>10.9</v>
       </c>
       <c r="U12" t="n">
-        <v>60.52</v>
+        <v>123.06</v>
       </c>
       <c r="V12" t="n">
-        <v>40.35</v>
+        <v>82.04000000000001</v>
       </c>
       <c r="W12" t="n">
-        <v>16.75</v>
+        <v>4.39</v>
       </c>
       <c r="X12" t="n">
-        <v>23.55</v>
+        <v>11.28</v>
       </c>
       <c r="Y12" t="n">
-        <v>105.8</v>
+        <v>147.86</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.348</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-06-03 12:06:38</t>
+          <t>2026-06-03 10:47:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2217,7 +2467,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.882</t>
+          <t>Mouse session - Score: 0.354</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2232,11 +2482,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2245,7 +2495,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12:06:38</t>
+          <t>10:47:36</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2254,58 +2504,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>24604</v>
+        <v>24032</v>
       </c>
       <c r="L13" t="n">
-        <v>24604</v>
+        <v>24032</v>
       </c>
       <c r="M13" t="n">
-        <v>5471.04</v>
+        <v>9953.66</v>
       </c>
       <c r="N13" t="n">
-        <v>3282.63</v>
+        <v>5972.2</v>
       </c>
       <c r="O13" t="n">
-        <v>2188.42</v>
+        <v>3981.47</v>
       </c>
       <c r="P13" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q13" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>106.1</v>
+        <v>130.29</v>
       </c>
       <c r="S13" t="n">
-        <v>51.57</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="T13" t="n">
-        <v>6.78</v>
+        <v>46.09</v>
       </c>
       <c r="U13" t="n">
-        <v>30.94</v>
+        <v>45.84</v>
       </c>
       <c r="V13" t="n">
-        <v>20.63</v>
+        <v>30.56</v>
       </c>
       <c r="W13" t="n">
-        <v>3.03</v>
+        <v>12.35</v>
       </c>
       <c r="X13" t="n">
-        <v>2.04</v>
+        <v>14.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.1</v>
+        <v>130.29</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.882</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-06-04 13:41:12</t>
+          <t>2026-06-04 10:32:16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2315,7 +2565,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.320</t>
+          <t>Mouse session - Score: 0.305</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2343,7 +2593,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13:41:12</t>
+          <t>10:32:16</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2352,58 +2602,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>21269</v>
+        <v>18508</v>
       </c>
       <c r="L14" t="n">
-        <v>21269</v>
+        <v>18508</v>
       </c>
       <c r="M14" t="n">
-        <v>9383.860000000001</v>
+        <v>28316.07</v>
       </c>
       <c r="N14" t="n">
-        <v>5630.32</v>
+        <v>16989.64</v>
       </c>
       <c r="O14" t="n">
-        <v>3753.55</v>
+        <v>11326.43</v>
       </c>
       <c r="P14" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Q14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R14" t="n">
-        <v>172.26</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>54.47</v>
+        <v>312.54</v>
       </c>
       <c r="T14" t="n">
-        <v>22.71</v>
+        <v>29.06</v>
       </c>
       <c r="U14" t="n">
-        <v>32.68</v>
+        <v>187.52</v>
       </c>
       <c r="V14" t="n">
-        <v>21.79</v>
+        <v>125.01</v>
       </c>
       <c r="W14" t="n">
-        <v>23.19</v>
+        <v>24.13</v>
       </c>
       <c r="X14" t="n">
-        <v>24.22</v>
+        <v>24.39</v>
       </c>
       <c r="Y14" t="n">
-        <v>172.26</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-06-04 17:42:31</t>
+          <t>2026-06-04 16:39:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,7 +2663,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.363</t>
+          <t>Mouse session - Score: 0.412</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2441,7 +2691,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>17:42:31</t>
+          <t>16:39:45</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2450,58 +2700,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>10674</v>
+        <v>19786</v>
       </c>
       <c r="L15" t="n">
-        <v>10674</v>
+        <v>19786</v>
       </c>
       <c r="M15" t="n">
-        <v>37585.83</v>
+        <v>9335.469999999999</v>
       </c>
       <c r="N15" t="n">
-        <v>22551.5</v>
+        <v>5601.28</v>
       </c>
       <c r="O15" t="n">
-        <v>15034.33</v>
+        <v>3734.19</v>
       </c>
       <c r="P15" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="Q15" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R15" t="n">
-        <v>119.77</v>
+        <v>63.51</v>
       </c>
       <c r="S15" t="n">
-        <v>313.81</v>
+        <v>146.98</v>
       </c>
       <c r="T15" t="n">
-        <v>8.039999999999999</v>
+        <v>16.52</v>
       </c>
       <c r="U15" t="n">
-        <v>188.28</v>
+        <v>88.19</v>
       </c>
       <c r="V15" t="n">
-        <v>125.52</v>
+        <v>58.79</v>
       </c>
       <c r="W15" t="n">
-        <v>5.73</v>
+        <v>25.82</v>
       </c>
       <c r="X15" t="n">
-        <v>6.54</v>
+        <v>25.37</v>
       </c>
       <c r="Y15" t="n">
-        <v>119.77</v>
+        <v>63.51</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.363</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-06-04 16:29:21</t>
+          <t>2026-06-04 09:49:52</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2511,7 +2761,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.336</t>
+          <t>Mouse session - Score: 0.437</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2539,7 +2789,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>16:29:21</t>
+          <t>09:49:52</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2548,58 +2798,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>24348</v>
+        <v>10413</v>
       </c>
       <c r="L16" t="n">
-        <v>24348</v>
+        <v>10413</v>
       </c>
       <c r="M16" t="n">
-        <v>19138.54</v>
+        <v>14572.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11483.13</v>
+        <v>8743.24</v>
       </c>
       <c r="O16" t="n">
-        <v>7655.42</v>
+        <v>5828.82</v>
       </c>
       <c r="P16" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R16" t="n">
-        <v>59.3</v>
+        <v>114.33</v>
       </c>
       <c r="S16" t="n">
-        <v>322.73</v>
+        <v>127.46</v>
       </c>
       <c r="T16" t="n">
-        <v>32.25</v>
+        <v>9.9</v>
       </c>
       <c r="U16" t="n">
-        <v>193.64</v>
+        <v>76.48</v>
       </c>
       <c r="V16" t="n">
-        <v>129.09</v>
+        <v>50.98</v>
       </c>
       <c r="W16" t="n">
-        <v>8.57</v>
+        <v>2.04</v>
       </c>
       <c r="X16" t="n">
-        <v>3.74</v>
+        <v>18.45</v>
       </c>
       <c r="Y16" t="n">
-        <v>59.3</v>
+        <v>114.33</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.336</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-06-04 17:19:14</t>
+          <t>2026-06-04 10:01:21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2609,7 +2859,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.399</t>
+          <t>Mouse session - Score: 0.303</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2637,7 +2887,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>17:19:14</t>
+          <t>10:01:21</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2646,58 +2896,58 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>14261</v>
+        <v>19319</v>
       </c>
       <c r="L17" t="n">
-        <v>14261</v>
+        <v>19319</v>
       </c>
       <c r="M17" t="n">
-        <v>24507.86</v>
+        <v>33552.8</v>
       </c>
       <c r="N17" t="n">
-        <v>14704.72</v>
+        <v>20131.68</v>
       </c>
       <c r="O17" t="n">
-        <v>9803.139999999999</v>
+        <v>13421.12</v>
       </c>
       <c r="P17" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>178.39</v>
+        <v>50.51</v>
       </c>
       <c r="S17" t="n">
-        <v>137.38</v>
+        <v>664.29</v>
       </c>
       <c r="T17" t="n">
-        <v>31.4</v>
+        <v>32.74</v>
       </c>
       <c r="U17" t="n">
-        <v>82.43000000000001</v>
+        <v>398.57</v>
       </c>
       <c r="V17" t="n">
-        <v>54.95</v>
+        <v>265.72</v>
       </c>
       <c r="W17" t="n">
-        <v>6.83</v>
+        <v>18.33</v>
       </c>
       <c r="X17" t="n">
-        <v>15.4</v>
+        <v>15.27</v>
       </c>
       <c r="Y17" t="n">
-        <v>178.39</v>
+        <v>50.51</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.399</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-06-05 09:38:20</t>
+          <t>2026-06-05 15:54:38</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2707,7 +2957,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.368</t>
+          <t>Mouse session - Score: 0.286</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2735,7 +2985,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>09:38:20</t>
+          <t>15:54:38</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2744,58 +2994,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>26789</v>
+        <v>17820</v>
       </c>
       <c r="L18" t="n">
-        <v>26789</v>
+        <v>17820</v>
       </c>
       <c r="M18" t="n">
-        <v>6890.91</v>
+        <v>36934.69</v>
       </c>
       <c r="N18" t="n">
-        <v>4134.55</v>
+        <v>22160.81</v>
       </c>
       <c r="O18" t="n">
-        <v>2756.36</v>
+        <v>14773.88</v>
       </c>
       <c r="P18" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>58.34</v>
+        <v>103.76</v>
       </c>
       <c r="S18" t="n">
-        <v>118.11</v>
+        <v>355.97</v>
       </c>
       <c r="T18" t="n">
-        <v>48.68</v>
+        <v>7.75</v>
       </c>
       <c r="U18" t="n">
-        <v>70.87</v>
+        <v>213.58</v>
       </c>
       <c r="V18" t="n">
-        <v>47.24</v>
+        <v>142.39</v>
       </c>
       <c r="W18" t="n">
-        <v>12.61</v>
+        <v>8.08</v>
       </c>
       <c r="X18" t="n">
-        <v>12.01</v>
+        <v>6.32</v>
       </c>
       <c r="Y18" t="n">
-        <v>58.34</v>
+        <v>103.76</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.368</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-06-05 16:45:38</t>
+          <t>2026-06-05 09:49:59</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2805,7 +3055,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.381</t>
+          <t>Mouse session - Score: 0.344</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2833,7 +3083,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16:45:38</t>
+          <t>09:49:59</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2842,58 +3092,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>19963</v>
+        <v>27900</v>
       </c>
       <c r="L19" t="n">
-        <v>19963</v>
+        <v>27900</v>
       </c>
       <c r="M19" t="n">
-        <v>39221.21</v>
+        <v>24211.89</v>
       </c>
       <c r="N19" t="n">
-        <v>23532.73</v>
+        <v>14527.13</v>
       </c>
       <c r="O19" t="n">
-        <v>15688.49</v>
+        <v>9684.75</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="R19" t="n">
-        <v>177.98</v>
+        <v>149.4</v>
       </c>
       <c r="S19" t="n">
-        <v>220.37</v>
+        <v>162.06</v>
       </c>
       <c r="T19" t="n">
-        <v>44.19</v>
+        <v>33.8</v>
       </c>
       <c r="U19" t="n">
-        <v>132.22</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="V19" t="n">
-        <v>88.15000000000001</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="W19" t="n">
-        <v>19.85</v>
+        <v>19.18</v>
       </c>
       <c r="X19" t="n">
-        <v>21.82</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>177.98</v>
+        <v>149.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.381</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-06-05 15:55:14</t>
+          <t>2026-06-05 13:03:17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2903,7 +3153,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.942</t>
+          <t>Mouse session - Score: 0.805</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2931,7 +3181,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>15:55:14</t>
+          <t>13:03:17</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2940,58 +3190,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>29717</v>
+        <v>14738</v>
       </c>
       <c r="L20" t="n">
-        <v>29717</v>
+        <v>14738</v>
       </c>
       <c r="M20" t="n">
-        <v>30706.27</v>
+        <v>17638.56</v>
       </c>
       <c r="N20" t="n">
-        <v>18423.76</v>
+        <v>10583.14</v>
       </c>
       <c r="O20" t="n">
-        <v>12282.51</v>
+        <v>7055.42</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="Q20" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="R20" t="n">
-        <v>123.56</v>
+        <v>117.89</v>
       </c>
       <c r="S20" t="n">
-        <v>248.52</v>
+        <v>149.62</v>
       </c>
       <c r="T20" t="n">
-        <v>49.04</v>
+        <v>33.68</v>
       </c>
       <c r="U20" t="n">
-        <v>149.11</v>
+        <v>89.77</v>
       </c>
       <c r="V20" t="n">
-        <v>99.41</v>
+        <v>59.85</v>
       </c>
       <c r="W20" t="n">
-        <v>24.03</v>
+        <v>20.92</v>
       </c>
       <c r="X20" t="n">
-        <v>9.369999999999999</v>
+        <v>3.89</v>
       </c>
       <c r="Y20" t="n">
-        <v>123.56</v>
+        <v>117.89</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-06-05 17:28:54</t>
+          <t>2026-06-05 10:33:14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3001,7 +3251,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.320</t>
+          <t>Mouse session - Score: 0.423</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3029,7 +3279,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>17:28:54</t>
+          <t>10:33:14</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3038,58 +3288,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>10276</v>
+        <v>11127</v>
       </c>
       <c r="L21" t="n">
-        <v>10276</v>
+        <v>11127</v>
       </c>
       <c r="M21" t="n">
-        <v>31684.32</v>
+        <v>20675.7</v>
       </c>
       <c r="N21" t="n">
-        <v>19010.59</v>
+        <v>12405.42</v>
       </c>
       <c r="O21" t="n">
-        <v>12673.73</v>
+        <v>8270.280000000001</v>
       </c>
       <c r="P21" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="Q21" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="R21" t="n">
-        <v>120.73</v>
+        <v>157.06</v>
       </c>
       <c r="S21" t="n">
-        <v>262.44</v>
+        <v>131.64</v>
       </c>
       <c r="T21" t="n">
-        <v>29.64</v>
+        <v>11.78</v>
       </c>
       <c r="U21" t="n">
-        <v>157.46</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="V21" t="n">
-        <v>104.98</v>
+        <v>52.66</v>
       </c>
       <c r="W21" t="n">
-        <v>22.73</v>
+        <v>7.04</v>
       </c>
       <c r="X21" t="n">
-        <v>4.03</v>
+        <v>6.99</v>
       </c>
       <c r="Y21" t="n">
-        <v>120.73</v>
+        <v>157.06</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.32</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-06-08 12:42:50</t>
+          <t>2026-06-08 17:04:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3099,7 +3349,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.450</t>
+          <t>Mouse session - Score: 0.299</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3127,7 +3377,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>12:42:50</t>
+          <t>17:04:45</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3136,58 +3386,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>22701</v>
+        <v>25526</v>
       </c>
       <c r="L22" t="n">
-        <v>22701</v>
+        <v>25526</v>
       </c>
       <c r="M22" t="n">
-        <v>5255.09</v>
+        <v>39376.91</v>
       </c>
       <c r="N22" t="n">
-        <v>3153.06</v>
+        <v>23626.15</v>
       </c>
       <c r="O22" t="n">
-        <v>2102.04</v>
+        <v>15750.76</v>
       </c>
       <c r="P22" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="Q22" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="R22" t="n">
-        <v>121.47</v>
+        <v>95.66</v>
       </c>
       <c r="S22" t="n">
-        <v>43.26</v>
+        <v>411.63</v>
       </c>
       <c r="T22" t="n">
-        <v>22.53</v>
+        <v>30.45</v>
       </c>
       <c r="U22" t="n">
-        <v>25.96</v>
+        <v>246.98</v>
       </c>
       <c r="V22" t="n">
-        <v>17.3</v>
+        <v>164.65</v>
       </c>
       <c r="W22" t="n">
-        <v>17.65</v>
+        <v>22.02</v>
       </c>
       <c r="X22" t="n">
-        <v>19.06</v>
+        <v>17.04</v>
       </c>
       <c r="Y22" t="n">
-        <v>121.47</v>
+        <v>95.66</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.45</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-06-08 13:43:59</t>
+          <t>2026-06-08 11:53:44</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3197,7 +3447,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.301</t>
+          <t>Mouse session - Score: 0.268</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3225,7 +3475,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13:43:59</t>
+          <t>11:53:44</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3234,58 +3484,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>15485</v>
+        <v>15639</v>
       </c>
       <c r="L23" t="n">
-        <v>15485</v>
+        <v>15639</v>
       </c>
       <c r="M23" t="n">
-        <v>31666.57</v>
+        <v>21497.33</v>
       </c>
       <c r="N23" t="n">
-        <v>18999.94</v>
+        <v>12898.4</v>
       </c>
       <c r="O23" t="n">
-        <v>12666.63</v>
+        <v>8598.93</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R23" t="n">
-        <v>173.71</v>
+        <v>159.18</v>
       </c>
       <c r="S23" t="n">
-        <v>182.3</v>
+        <v>135.05</v>
       </c>
       <c r="T23" t="n">
-        <v>45.14</v>
+        <v>41.85</v>
       </c>
       <c r="U23" t="n">
-        <v>109.38</v>
+        <v>81.03</v>
       </c>
       <c r="V23" t="n">
-        <v>72.92</v>
+        <v>54.02</v>
       </c>
       <c r="W23" t="n">
-        <v>23.59</v>
+        <v>24.32</v>
       </c>
       <c r="X23" t="n">
-        <v>19.69</v>
+        <v>25.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.71</v>
+        <v>159.18</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.301</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-06-08 17:23:47</t>
+          <t>2026-06-08 10:04:17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3295,7 +3545,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.405</t>
+          <t>Mouse session - Score: 0.327</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3323,7 +3573,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>17:23:47</t>
+          <t>10:04:17</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3332,58 +3582,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>19858</v>
+        <v>21057</v>
       </c>
       <c r="L24" t="n">
-        <v>19858</v>
+        <v>21057</v>
       </c>
       <c r="M24" t="n">
-        <v>21669.37</v>
+        <v>5884.38</v>
       </c>
       <c r="N24" t="n">
-        <v>13001.62</v>
+        <v>3530.63</v>
       </c>
       <c r="O24" t="n">
-        <v>8667.75</v>
+        <v>2353.75</v>
       </c>
       <c r="P24" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q24" t="n">
         <v>28</v>
       </c>
       <c r="R24" t="n">
-        <v>142.59</v>
+        <v>124.5</v>
       </c>
       <c r="S24" t="n">
-        <v>151.97</v>
+        <v>47.26</v>
       </c>
       <c r="T24" t="n">
-        <v>12.99</v>
+        <v>13.92</v>
       </c>
       <c r="U24" t="n">
-        <v>91.18000000000001</v>
+        <v>28.36</v>
       </c>
       <c r="V24" t="n">
-        <v>60.79</v>
+        <v>18.91</v>
       </c>
       <c r="W24" t="n">
-        <v>7.59</v>
+        <v>22.81</v>
       </c>
       <c r="X24" t="n">
-        <v>14.66</v>
+        <v>27.29</v>
       </c>
       <c r="Y24" t="n">
-        <v>142.59</v>
+        <v>124.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.405</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-06-08 09:42:04</t>
+          <t>2026-06-08 10:07:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3393,7 +3643,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.267</t>
+          <t>Mouse session - Score: 0.432</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3421,7 +3671,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>09:42:04</t>
+          <t>10:07:30</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3430,58 +3680,58 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>18127</v>
+        <v>8683</v>
       </c>
       <c r="L25" t="n">
-        <v>18127</v>
+        <v>8683</v>
       </c>
       <c r="M25" t="n">
-        <v>15729.45</v>
+        <v>32408.45</v>
       </c>
       <c r="N25" t="n">
-        <v>9437.67</v>
+        <v>19445.07</v>
       </c>
       <c r="O25" t="n">
-        <v>6291.78</v>
+        <v>12963.38</v>
       </c>
       <c r="P25" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R25" t="n">
-        <v>127.21</v>
+        <v>86.8</v>
       </c>
       <c r="S25" t="n">
-        <v>123.65</v>
+        <v>373.37</v>
       </c>
       <c r="T25" t="n">
-        <v>15.38</v>
+        <v>32.03</v>
       </c>
       <c r="U25" t="n">
-        <v>74.19</v>
+        <v>224.02</v>
       </c>
       <c r="V25" t="n">
-        <v>49.46</v>
+        <v>149.35</v>
       </c>
       <c r="W25" t="n">
-        <v>6.65</v>
+        <v>3.06</v>
       </c>
       <c r="X25" t="n">
-        <v>3.97</v>
+        <v>16.39</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.21</v>
+        <v>86.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.267</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-06-09 10:08:45</t>
+          <t>2026-06-09 16:08:27</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3491,7 +3741,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.410</t>
+          <t>Mouse session - Score: 0.307</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3519,7 +3769,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10:08:45</t>
+          <t>16:08:27</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3528,58 +3778,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>29548</v>
+        <v>20359</v>
       </c>
       <c r="L26" t="n">
-        <v>29548</v>
+        <v>20359</v>
       </c>
       <c r="M26" t="n">
-        <v>31013.42</v>
+        <v>14522.58</v>
       </c>
       <c r="N26" t="n">
-        <v>18608.05</v>
+        <v>8713.549999999999</v>
       </c>
       <c r="O26" t="n">
-        <v>12405.37</v>
+        <v>5809.03</v>
       </c>
       <c r="P26" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="Q26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="R26" t="n">
-        <v>128.52</v>
+        <v>101.56</v>
       </c>
       <c r="S26" t="n">
-        <v>241.31</v>
+        <v>142.99</v>
       </c>
       <c r="T26" t="n">
-        <v>29.18</v>
+        <v>5.57</v>
       </c>
       <c r="U26" t="n">
-        <v>144.78</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="V26" t="n">
-        <v>96.52</v>
+        <v>57.2</v>
       </c>
       <c r="W26" t="n">
-        <v>4.44</v>
+        <v>26.1</v>
       </c>
       <c r="X26" t="n">
-        <v>29.76</v>
+        <v>13.87</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.52</v>
+        <v>101.56</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.41</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-06-09 14:06:48</t>
+          <t>2026-06-09 14:10:16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3589,7 +3839,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.360</t>
+          <t>Mouse session - Score: 0.356</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3617,7 +3867,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14:06:48</t>
+          <t>14:10:16</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3626,58 +3876,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>11545</v>
+        <v>10074</v>
       </c>
       <c r="L27" t="n">
-        <v>11545</v>
+        <v>10074</v>
       </c>
       <c r="M27" t="n">
-        <v>5368.62</v>
+        <v>5741.45</v>
       </c>
       <c r="N27" t="n">
-        <v>3221.17</v>
+        <v>3444.87</v>
       </c>
       <c r="O27" t="n">
-        <v>2147.45</v>
+        <v>2296.58</v>
       </c>
       <c r="P27" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="Q27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R27" t="n">
-        <v>163.91</v>
+        <v>74.51000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>32.75</v>
+        <v>77.05</v>
       </c>
       <c r="T27" t="n">
-        <v>18.46</v>
+        <v>9.76</v>
       </c>
       <c r="U27" t="n">
-        <v>19.65</v>
+        <v>46.23</v>
       </c>
       <c r="V27" t="n">
-        <v>13.1</v>
+        <v>30.82</v>
       </c>
       <c r="W27" t="n">
-        <v>4.41</v>
+        <v>13.17</v>
       </c>
       <c r="X27" t="n">
-        <v>19.17</v>
+        <v>29.41</v>
       </c>
       <c r="Y27" t="n">
-        <v>163.91</v>
+        <v>74.51000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.36</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-06-09 12:24:01</t>
+          <t>2026-06-09 13:10:39</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3687,7 +3937,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.312</t>
+          <t>Mouse session - Score: 0.403</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3715,7 +3965,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12:24:01</t>
+          <t>13:10:39</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3724,58 +3974,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>10104</v>
+        <v>25124</v>
       </c>
       <c r="L28" t="n">
-        <v>10104</v>
+        <v>25124</v>
       </c>
       <c r="M28" t="n">
-        <v>39810.81</v>
+        <v>5370.21</v>
       </c>
       <c r="N28" t="n">
-        <v>23886.48</v>
+        <v>3222.12</v>
       </c>
       <c r="O28" t="n">
-        <v>15924.32</v>
+        <v>2148.08</v>
       </c>
       <c r="P28" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Q28" t="n">
         <v>22</v>
       </c>
       <c r="R28" t="n">
-        <v>93.83</v>
+        <v>145.9</v>
       </c>
       <c r="S28" t="n">
-        <v>424.29</v>
+        <v>36.81</v>
       </c>
       <c r="T28" t="n">
-        <v>11.69</v>
+        <v>31.49</v>
       </c>
       <c r="U28" t="n">
-        <v>254.57</v>
+        <v>22.08</v>
       </c>
       <c r="V28" t="n">
-        <v>169.71</v>
+        <v>14.72</v>
       </c>
       <c r="W28" t="n">
-        <v>11.08</v>
+        <v>6.33</v>
       </c>
       <c r="X28" t="n">
-        <v>19.9</v>
+        <v>18.48</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.83</v>
+        <v>145.9</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.312</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-06-09 11:15:37</t>
+          <t>2026-06-09 13:39:39</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3785,7 +4035,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.337</t>
+          <t>Mouse session - Score: 0.314</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3813,7 +4063,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11:15:37</t>
+          <t>13:39:39</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3822,58 +4072,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>10563</v>
+        <v>14225</v>
       </c>
       <c r="L29" t="n">
-        <v>10563</v>
+        <v>14225</v>
       </c>
       <c r="M29" t="n">
-        <v>8867.93</v>
+        <v>17749.51</v>
       </c>
       <c r="N29" t="n">
-        <v>5320.76</v>
+        <v>10649.71</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.17</v>
+        <v>7099.8</v>
       </c>
       <c r="P29" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>158.91</v>
+        <v>122.01</v>
       </c>
       <c r="S29" t="n">
-        <v>55.8</v>
+        <v>145.48</v>
       </c>
       <c r="T29" t="n">
-        <v>37.9</v>
+        <v>22.86</v>
       </c>
       <c r="U29" t="n">
-        <v>33.48</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="V29" t="n">
-        <v>22.32</v>
+        <v>58.19</v>
       </c>
       <c r="W29" t="n">
-        <v>25.75</v>
+        <v>26.36</v>
       </c>
       <c r="X29" t="n">
-        <v>25.79</v>
+        <v>8.18</v>
       </c>
       <c r="Y29" t="n">
-        <v>158.91</v>
+        <v>122.01</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.337</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-06-10 14:39:32</t>
+          <t>2026-06-10 13:09:49</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3883,7 +4133,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.339</t>
+          <t>Mouse session - Score: 0.305</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3911,7 +4161,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>14:39:32</t>
+          <t>13:09:49</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3920,58 +4170,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>26651</v>
+        <v>27635</v>
       </c>
       <c r="L30" t="n">
-        <v>26651</v>
+        <v>27635</v>
       </c>
       <c r="M30" t="n">
-        <v>26892.27</v>
+        <v>32388.25</v>
       </c>
       <c r="N30" t="n">
-        <v>16135.36</v>
+        <v>19432.95</v>
       </c>
       <c r="O30" t="n">
-        <v>10756.91</v>
+        <v>12955.3</v>
       </c>
       <c r="P30" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="R30" t="n">
-        <v>134.18</v>
+        <v>122.88</v>
       </c>
       <c r="S30" t="n">
-        <v>200.42</v>
+        <v>263.58</v>
       </c>
       <c r="T30" t="n">
-        <v>27.89</v>
+        <v>16.67</v>
       </c>
       <c r="U30" t="n">
-        <v>120.25</v>
+        <v>158.15</v>
       </c>
       <c r="V30" t="n">
-        <v>80.17</v>
+        <v>105.43</v>
       </c>
       <c r="W30" t="n">
-        <v>28.99</v>
+        <v>4.98</v>
       </c>
       <c r="X30" t="n">
-        <v>19.85</v>
+        <v>16.59</v>
       </c>
       <c r="Y30" t="n">
-        <v>134.18</v>
+        <v>122.88</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.339</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-06-10 17:05:28</t>
+          <t>2026-06-10 12:58:16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3981,7 +4231,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.395</t>
+          <t>Mouse session - Score: 0.400</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4009,7 +4259,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>17:05:28</t>
+          <t>12:58:16</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4018,58 +4268,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>24364</v>
+        <v>7292</v>
       </c>
       <c r="L31" t="n">
-        <v>24364</v>
+        <v>7292</v>
       </c>
       <c r="M31" t="n">
-        <v>36339.91</v>
+        <v>25438.94</v>
       </c>
       <c r="N31" t="n">
-        <v>21803.95</v>
+        <v>15263.36</v>
       </c>
       <c r="O31" t="n">
-        <v>14535.97</v>
+        <v>10175.58</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="R31" t="n">
-        <v>60.71</v>
+        <v>42.49</v>
       </c>
       <c r="S31" t="n">
-        <v>598.5700000000001</v>
+        <v>598.6900000000001</v>
       </c>
       <c r="T31" t="n">
-        <v>36.93</v>
+        <v>11.57</v>
       </c>
       <c r="U31" t="n">
-        <v>359.14</v>
+        <v>359.22</v>
       </c>
       <c r="V31" t="n">
-        <v>239.43</v>
+        <v>239.48</v>
       </c>
       <c r="W31" t="n">
-        <v>16.85</v>
+        <v>18.33</v>
       </c>
       <c r="X31" t="n">
-        <v>23.97</v>
+        <v>24.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>60.71</v>
+        <v>42.49</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-06-10 14:18:34</t>
+          <t>2026-06-10 17:16:47</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4079,7 +4329,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.905</t>
+          <t>Mouse session - Score: 0.281</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4094,11 +4344,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4107,7 +4357,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>14:18:34</t>
+          <t>17:16:47</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4116,58 +4366,58 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>13529</v>
+        <v>27693</v>
       </c>
       <c r="L32" t="n">
-        <v>13529</v>
+        <v>27693</v>
       </c>
       <c r="M32" t="n">
-        <v>33592.54</v>
+        <v>37442.3</v>
       </c>
       <c r="N32" t="n">
-        <v>20155.52</v>
+        <v>22465.38</v>
       </c>
       <c r="O32" t="n">
-        <v>13437.01</v>
+        <v>14976.92</v>
       </c>
       <c r="P32" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R32" t="n">
-        <v>166.14</v>
+        <v>137.64</v>
       </c>
       <c r="S32" t="n">
-        <v>202.2</v>
+        <v>272.02</v>
       </c>
       <c r="T32" t="n">
-        <v>21.26</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="U32" t="n">
-        <v>121.32</v>
+        <v>163.21</v>
       </c>
       <c r="V32" t="n">
-        <v>80.88</v>
+        <v>108.81</v>
       </c>
       <c r="W32" t="n">
-        <v>21.28</v>
+        <v>20.24</v>
       </c>
       <c r="X32" t="n">
-        <v>29.8</v>
+        <v>20.74</v>
       </c>
       <c r="Y32" t="n">
-        <v>166.14</v>
+        <v>137.64</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.905</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-06-10 16:32:46</t>
+          <t>2026-06-10 15:35:36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4177,7 +4427,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.859</t>
+          <t>Mouse session - Score: 0.287</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4192,11 +4442,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -4205,7 +4455,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>16:32:46</t>
+          <t>15:35:36</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4214,58 +4464,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>15265</v>
+        <v>29866</v>
       </c>
       <c r="L33" t="n">
-        <v>15265</v>
+        <v>29866</v>
       </c>
       <c r="M33" t="n">
-        <v>29914.51</v>
+        <v>5548.79</v>
       </c>
       <c r="N33" t="n">
-        <v>17948.71</v>
+        <v>3329.27</v>
       </c>
       <c r="O33" t="n">
-        <v>11965.81</v>
+        <v>2219.52</v>
       </c>
       <c r="P33" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q33" t="n">
         <v>8</v>
       </c>
       <c r="R33" t="n">
-        <v>51.16</v>
+        <v>116.3</v>
       </c>
       <c r="S33" t="n">
-        <v>584.7</v>
+        <v>47.71</v>
       </c>
       <c r="T33" t="n">
-        <v>35.76</v>
+        <v>16.43</v>
       </c>
       <c r="U33" t="n">
-        <v>350.82</v>
+        <v>28.63</v>
       </c>
       <c r="V33" t="n">
-        <v>233.88</v>
+        <v>19.08</v>
       </c>
       <c r="W33" t="n">
-        <v>7.06</v>
+        <v>11.98</v>
       </c>
       <c r="X33" t="n">
-        <v>4.63</v>
+        <v>23.14</v>
       </c>
       <c r="Y33" t="n">
-        <v>51.16</v>
+        <v>116.3</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.859</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-06-11 16:50:10</t>
+          <t>2026-06-11 16:29:25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4275,7 +4525,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.893</t>
+          <t>Mouse session - Score: 0.441</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4290,11 +4540,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -4303,7 +4553,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>16:50:10</t>
+          <t>16:29:25</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4312,58 +4562,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>12161</v>
+        <v>24776</v>
       </c>
       <c r="L34" t="n">
-        <v>12161</v>
+        <v>24776</v>
       </c>
       <c r="M34" t="n">
-        <v>9217.379999999999</v>
+        <v>27882.55</v>
       </c>
       <c r="N34" t="n">
-        <v>5530.43</v>
+        <v>16729.53</v>
       </c>
       <c r="O34" t="n">
-        <v>3686.95</v>
+        <v>11153.02</v>
       </c>
       <c r="P34" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="R34" t="n">
-        <v>106.53</v>
+        <v>130.98</v>
       </c>
       <c r="S34" t="n">
-        <v>86.52</v>
+        <v>212.88</v>
       </c>
       <c r="T34" t="n">
-        <v>14.13</v>
+        <v>48.11</v>
       </c>
       <c r="U34" t="n">
-        <v>51.91</v>
+        <v>127.73</v>
       </c>
       <c r="V34" t="n">
-        <v>34.61</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="W34" t="n">
-        <v>15.44</v>
+        <v>28.96</v>
       </c>
       <c r="X34" t="n">
-        <v>5.02</v>
+        <v>12.9</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.53</v>
+        <v>130.98</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.893</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-06-11 12:36:13</t>
+          <t>2026-06-11 15:25:25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4373,7 +4623,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.362</t>
+          <t>Mouse session - Score: 0.349</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4401,7 +4651,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>12:36:13</t>
+          <t>15:25:25</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4410,58 +4660,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>10187</v>
+        <v>19775</v>
       </c>
       <c r="L35" t="n">
-        <v>10187</v>
+        <v>19775</v>
       </c>
       <c r="M35" t="n">
-        <v>12676.28</v>
+        <v>16242.31</v>
       </c>
       <c r="N35" t="n">
-        <v>7605.77</v>
+        <v>9745.379999999999</v>
       </c>
       <c r="O35" t="n">
-        <v>5070.51</v>
+        <v>6496.92</v>
       </c>
       <c r="P35" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q35" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>63.65</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="S35" t="n">
-        <v>199.16</v>
+        <v>225.13</v>
       </c>
       <c r="T35" t="n">
-        <v>40.86</v>
+        <v>45.97</v>
       </c>
       <c r="U35" t="n">
-        <v>119.5</v>
+        <v>135.08</v>
       </c>
       <c r="V35" t="n">
-        <v>79.66</v>
+        <v>90.05</v>
       </c>
       <c r="W35" t="n">
-        <v>24.88</v>
+        <v>24.23</v>
       </c>
       <c r="X35" t="n">
-        <v>13.53</v>
+        <v>14.8</v>
       </c>
       <c r="Y35" t="n">
-        <v>63.65</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.362</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-06-11 10:43:32</t>
+          <t>2026-06-11 15:04:08</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4471,7 +4721,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.874</t>
+          <t>Mouse session - Score: 0.272</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4486,11 +4736,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -4499,7 +4749,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10:43:32</t>
+          <t>15:04:08</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4508,58 +4758,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>25044</v>
+        <v>17500</v>
       </c>
       <c r="L36" t="n">
-        <v>25044</v>
+        <v>17500</v>
       </c>
       <c r="M36" t="n">
-        <v>29648.64</v>
+        <v>22616.77</v>
       </c>
       <c r="N36" t="n">
-        <v>17789.18</v>
+        <v>13570.06</v>
       </c>
       <c r="O36" t="n">
-        <v>11859.46</v>
+        <v>9046.709999999999</v>
       </c>
       <c r="P36" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q36" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="R36" t="n">
-        <v>130.67</v>
+        <v>87.06999999999999</v>
       </c>
       <c r="S36" t="n">
-        <v>226.9</v>
+        <v>259.75</v>
       </c>
       <c r="T36" t="n">
-        <v>41.94</v>
+        <v>37.74</v>
       </c>
       <c r="U36" t="n">
-        <v>136.14</v>
+        <v>155.85</v>
       </c>
       <c r="V36" t="n">
-        <v>90.76000000000001</v>
+        <v>103.9</v>
       </c>
       <c r="W36" t="n">
-        <v>18.3</v>
+        <v>29.93</v>
       </c>
       <c r="X36" t="n">
-        <v>6.72</v>
+        <v>24.84</v>
       </c>
       <c r="Y36" t="n">
-        <v>130.67</v>
+        <v>87.06999999999999</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.874</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-06-11 15:52:42</t>
+          <t>2026-06-11 10:01:15</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4569,7 +4819,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.444</t>
+          <t>Mouse session - Score: 0.258</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4597,7 +4847,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>15:52:42</t>
+          <t>10:01:15</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4606,58 +4856,58 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>29597</v>
+        <v>5666</v>
       </c>
       <c r="L37" t="n">
-        <v>29597</v>
+        <v>5666</v>
       </c>
       <c r="M37" t="n">
-        <v>10706.2</v>
+        <v>37428.66</v>
       </c>
       <c r="N37" t="n">
-        <v>6423.72</v>
+        <v>22457.19</v>
       </c>
       <c r="O37" t="n">
-        <v>4282.48</v>
+        <v>14971.46</v>
       </c>
       <c r="P37" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q37" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="R37" t="n">
-        <v>75.28</v>
+        <v>143.31</v>
       </c>
       <c r="S37" t="n">
-        <v>142.22</v>
+        <v>261.17</v>
       </c>
       <c r="T37" t="n">
-        <v>37.78</v>
+        <v>11.46</v>
       </c>
       <c r="U37" t="n">
-        <v>85.33</v>
+        <v>156.7</v>
       </c>
       <c r="V37" t="n">
-        <v>56.89</v>
+        <v>104.47</v>
       </c>
       <c r="W37" t="n">
-        <v>7.79</v>
+        <v>19.8</v>
       </c>
       <c r="X37" t="n">
-        <v>3.57</v>
+        <v>4.97</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.28</v>
+        <v>143.31</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.444</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-06-12 13:46:38</t>
+          <t>2026-06-12 17:49:15</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4667,7 +4917,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.271</t>
+          <t>Mouse session - Score: 0.398</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4695,7 +4945,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>13:46:38</t>
+          <t>17:49:15</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4704,58 +4954,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>26992</v>
+        <v>18835</v>
       </c>
       <c r="L38" t="n">
-        <v>26992</v>
+        <v>18835</v>
       </c>
       <c r="M38" t="n">
-        <v>12717.3</v>
+        <v>14787.48</v>
       </c>
       <c r="N38" t="n">
-        <v>7630.38</v>
+        <v>8872.49</v>
       </c>
       <c r="O38" t="n">
-        <v>5086.92</v>
+        <v>5914.99</v>
       </c>
       <c r="P38" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="R38" t="n">
-        <v>66.77</v>
+        <v>120.53</v>
       </c>
       <c r="S38" t="n">
-        <v>190.47</v>
+        <v>122.69</v>
       </c>
       <c r="T38" t="n">
-        <v>11.16</v>
+        <v>16.26</v>
       </c>
       <c r="U38" t="n">
-        <v>114.28</v>
+        <v>73.61</v>
       </c>
       <c r="V38" t="n">
-        <v>76.19</v>
+        <v>49.07</v>
       </c>
       <c r="W38" t="n">
-        <v>9.130000000000001</v>
+        <v>7.14</v>
       </c>
       <c r="X38" t="n">
-        <v>21.36</v>
+        <v>2.63</v>
       </c>
       <c r="Y38" t="n">
-        <v>66.77</v>
+        <v>120.53</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.271</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-06-12 13:36:06</t>
+          <t>2026-06-12 12:20:41</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4765,7 +5015,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.296</t>
+          <t>Mouse session - Score: 0.257</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4793,7 +5043,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>13:36:06</t>
+          <t>12:20:41</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4802,58 +5052,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>24736</v>
+        <v>7681</v>
       </c>
       <c r="L39" t="n">
-        <v>24736</v>
+        <v>7681</v>
       </c>
       <c r="M39" t="n">
-        <v>16810.42</v>
+        <v>37685.73</v>
       </c>
       <c r="N39" t="n">
-        <v>10086.25</v>
+        <v>22611.44</v>
       </c>
       <c r="O39" t="n">
-        <v>6724.17</v>
+        <v>15074.29</v>
       </c>
       <c r="P39" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="R39" t="n">
-        <v>161.1</v>
+        <v>108.59</v>
       </c>
       <c r="S39" t="n">
-        <v>104.34</v>
+        <v>347.04</v>
       </c>
       <c r="T39" t="n">
-        <v>39.51</v>
+        <v>24.33</v>
       </c>
       <c r="U39" t="n">
-        <v>62.61</v>
+        <v>208.23</v>
       </c>
       <c r="V39" t="n">
-        <v>41.74</v>
+        <v>138.82</v>
       </c>
       <c r="W39" t="n">
-        <v>12.91</v>
+        <v>18.57</v>
       </c>
       <c r="X39" t="n">
-        <v>16.52</v>
+        <v>6.38</v>
       </c>
       <c r="Y39" t="n">
-        <v>161.1</v>
+        <v>108.59</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.296</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-06-12 09:58:51</t>
+          <t>2026-06-12 16:54:29</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4863,7 +5113,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.418</t>
+          <t>Mouse session - Score: 0.390</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4891,7 +5141,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>09:58:51</t>
+          <t>16:54:29</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -4900,58 +5150,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>21871</v>
+        <v>13773</v>
       </c>
       <c r="L40" t="n">
-        <v>21871</v>
+        <v>13773</v>
       </c>
       <c r="M40" t="n">
-        <v>39085.44</v>
+        <v>7605.86</v>
       </c>
       <c r="N40" t="n">
-        <v>23451.27</v>
+        <v>4563.52</v>
       </c>
       <c r="O40" t="n">
-        <v>15634.18</v>
+        <v>3042.34</v>
       </c>
       <c r="P40" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>37.76</v>
+        <v>166.32</v>
       </c>
       <c r="S40" t="n">
-        <v>1035.05</v>
+        <v>45.73</v>
       </c>
       <c r="T40" t="n">
-        <v>8.99</v>
+        <v>8.68</v>
       </c>
       <c r="U40" t="n">
-        <v>621.03</v>
+        <v>27.44</v>
       </c>
       <c r="V40" t="n">
-        <v>414.02</v>
+        <v>18.29</v>
       </c>
       <c r="W40" t="n">
-        <v>18.29</v>
+        <v>16.86</v>
       </c>
       <c r="X40" t="n">
-        <v>6.65</v>
+        <v>26.17</v>
       </c>
       <c r="Y40" t="n">
-        <v>37.76</v>
+        <v>166.32</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.418</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-06-12 09:52:23</t>
+          <t>2026-06-12 10:54:26</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4961,7 +5211,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.324</t>
+          <t>Mouse session - Score: 0.897</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4976,11 +5226,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -4989,7 +5239,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>09:52:23</t>
+          <t>10:54:26</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -4998,58 +5248,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>7508</v>
+        <v>18383</v>
       </c>
       <c r="L41" t="n">
-        <v>7508</v>
+        <v>18383</v>
       </c>
       <c r="M41" t="n">
-        <v>15205.81</v>
+        <v>24321.88</v>
       </c>
       <c r="N41" t="n">
-        <v>9123.49</v>
+        <v>14593.13</v>
       </c>
       <c r="O41" t="n">
-        <v>6082.32</v>
+        <v>9728.75</v>
       </c>
       <c r="P41" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R41" t="n">
-        <v>109.32</v>
+        <v>128.67</v>
       </c>
       <c r="S41" t="n">
-        <v>139.09</v>
+        <v>189.02</v>
       </c>
       <c r="T41" t="n">
-        <v>41.05</v>
+        <v>33.64</v>
       </c>
       <c r="U41" t="n">
-        <v>83.45</v>
+        <v>113.41</v>
       </c>
       <c r="V41" t="n">
-        <v>55.64</v>
+        <v>75.61</v>
       </c>
       <c r="W41" t="n">
-        <v>6.31</v>
+        <v>21.83</v>
       </c>
       <c r="X41" t="n">
-        <v>22.53</v>
+        <v>20.43</v>
       </c>
       <c r="Y41" t="n">
-        <v>109.32</v>
+        <v>128.67</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.324</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-06-14 12:24:11</t>
+          <t>2026-06-15 17:40:37</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5059,7 +5309,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.365</t>
+          <t>Mouse session - Score: 0.283</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -5069,7 +5319,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MOUSE_20260614_000</t>
+          <t>MOUSE_20260615_000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5082,12 +5332,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-15</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>12:24:11</t>
+          <t>17:40:37</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5096,58 +5346,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>22847</v>
+        <v>12939</v>
       </c>
       <c r="L42" t="n">
-        <v>22847</v>
+        <v>12939</v>
       </c>
       <c r="M42" t="n">
-        <v>33894.64</v>
+        <v>20186.72</v>
       </c>
       <c r="N42" t="n">
-        <v>20336.78</v>
+        <v>12112.03</v>
       </c>
       <c r="O42" t="n">
-        <v>13557.85</v>
+        <v>8074.69</v>
       </c>
       <c r="P42" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q42" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>30.76</v>
+        <v>43.36</v>
       </c>
       <c r="S42" t="n">
-        <v>1101.91</v>
+        <v>465.51</v>
       </c>
       <c r="T42" t="n">
-        <v>17.13</v>
+        <v>6.57</v>
       </c>
       <c r="U42" t="n">
-        <v>661.14</v>
+        <v>279.31</v>
       </c>
       <c r="V42" t="n">
-        <v>440.76</v>
+        <v>186.2</v>
       </c>
       <c r="W42" t="n">
-        <v>4.35</v>
+        <v>4.46</v>
       </c>
       <c r="X42" t="n">
-        <v>28.58</v>
+        <v>7.9</v>
       </c>
       <c r="Y42" t="n">
-        <v>30.76</v>
+        <v>43.36</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.365</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-06-14 10:44:18</t>
+          <t>2026-06-15 12:49:09</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5157,7 +5407,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.319</t>
+          <t>Mouse session - Score: 0.329</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5167,7 +5417,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MOUSE_20260614_001</t>
+          <t>MOUSE_20260615_001</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5180,12 +5430,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-15</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>10:44:18</t>
+          <t>12:49:09</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5194,58 +5444,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>7700</v>
+        <v>22881</v>
       </c>
       <c r="L43" t="n">
-        <v>7700</v>
+        <v>22881</v>
       </c>
       <c r="M43" t="n">
-        <v>12075.6</v>
+        <v>19469.51</v>
       </c>
       <c r="N43" t="n">
-        <v>7245.36</v>
+        <v>11681.71</v>
       </c>
       <c r="O43" t="n">
-        <v>4830.24</v>
+        <v>7787.81</v>
       </c>
       <c r="P43" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="Q43" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>161.01</v>
+        <v>34.85</v>
       </c>
       <c r="S43" t="n">
-        <v>75</v>
+        <v>558.62</v>
       </c>
       <c r="T43" t="n">
-        <v>34.74</v>
+        <v>28.51</v>
       </c>
       <c r="U43" t="n">
-        <v>45</v>
+        <v>335.17</v>
       </c>
       <c r="V43" t="n">
-        <v>30</v>
+        <v>223.45</v>
       </c>
       <c r="W43" t="n">
-        <v>8.140000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="X43" t="n">
-        <v>23.06</v>
+        <v>29.05</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.01</v>
+        <v>34.85</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.319</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-06-14 17:21:33</t>
+          <t>2026-06-15 10:20:42</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5255,7 +5505,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.386</t>
+          <t>Mouse session - Score: 0.357</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -5265,7 +5515,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MOUSE_20260614_002</t>
+          <t>MOUSE_20260615_002</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5278,12 +5528,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-15</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>17:21:33</t>
+          <t>10:20:42</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5292,58 +5542,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>23666</v>
+        <v>24480</v>
       </c>
       <c r="L44" t="n">
-        <v>23666</v>
+        <v>24480</v>
       </c>
       <c r="M44" t="n">
-        <v>31868.2</v>
+        <v>26391.28</v>
       </c>
       <c r="N44" t="n">
-        <v>19120.92</v>
+        <v>15834.77</v>
       </c>
       <c r="O44" t="n">
-        <v>12747.28</v>
+        <v>10556.51</v>
       </c>
       <c r="P44" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="R44" t="n">
-        <v>34.82</v>
+        <v>174.16</v>
       </c>
       <c r="S44" t="n">
-        <v>915.15</v>
+        <v>151.54</v>
       </c>
       <c r="T44" t="n">
-        <v>48.04</v>
+        <v>49.08</v>
       </c>
       <c r="U44" t="n">
-        <v>549.09</v>
+        <v>90.92</v>
       </c>
       <c r="V44" t="n">
-        <v>366.06</v>
+        <v>60.61</v>
       </c>
       <c r="W44" t="n">
-        <v>3.07</v>
+        <v>23.71</v>
       </c>
       <c r="X44" t="n">
-        <v>26.97</v>
+        <v>24.06</v>
       </c>
       <c r="Y44" t="n">
-        <v>34.82</v>
+        <v>174.16</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.386</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-06-14 16:08:35</t>
+          <t>2026-06-15 14:41:38</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5353,7 +5603,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.325</t>
+          <t>Mouse session - Score: 0.265</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5363,7 +5613,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MOUSE_20260614_003</t>
+          <t>MOUSE_20260615_003</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5376,12 +5626,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-15</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>16:08:35</t>
+          <t>14:41:38</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5390,58 +5640,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>20996</v>
+        <v>11959</v>
       </c>
       <c r="L45" t="n">
-        <v>20996</v>
+        <v>11959</v>
       </c>
       <c r="M45" t="n">
-        <v>30104.15</v>
+        <v>32084.87</v>
       </c>
       <c r="N45" t="n">
-        <v>18062.49</v>
+        <v>19250.92</v>
       </c>
       <c r="O45" t="n">
-        <v>12041.66</v>
+        <v>12833.95</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q45" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="R45" t="n">
-        <v>71.58</v>
+        <v>49.42</v>
       </c>
       <c r="S45" t="n">
-        <v>420.59</v>
+        <v>649.21</v>
       </c>
       <c r="T45" t="n">
-        <v>43.32</v>
+        <v>45.05</v>
       </c>
       <c r="U45" t="n">
-        <v>252.36</v>
+        <v>389.53</v>
       </c>
       <c r="V45" t="n">
-        <v>168.24</v>
+        <v>259.68</v>
       </c>
       <c r="W45" t="n">
-        <v>19.64</v>
+        <v>25.47</v>
       </c>
       <c r="X45" t="n">
-        <v>25.28</v>
+        <v>13.52</v>
       </c>
       <c r="Y45" t="n">
-        <v>71.58</v>
+        <v>49.42</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.325</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-06-15 11:14:01</t>
+          <t>2026-06-16 13:59:55</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5451,7 +5701,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.382</t>
+          <t>Mouse session - Score: 0.328</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5461,7 +5711,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MOUSE_20260615_000</t>
+          <t>MOUSE_20260616_000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5474,12 +5724,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-06-15</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>11:14:01</t>
+          <t>13:59:55</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5488,58 +5738,58 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>6370</v>
+        <v>29607</v>
       </c>
       <c r="L46" t="n">
-        <v>6370</v>
+        <v>29607</v>
       </c>
       <c r="M46" t="n">
-        <v>29395.6</v>
+        <v>13526.95</v>
       </c>
       <c r="N46" t="n">
-        <v>17637.36</v>
+        <v>8116.17</v>
       </c>
       <c r="O46" t="n">
-        <v>11758.24</v>
+        <v>5410.78</v>
       </c>
       <c r="P46" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="Q46" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R46" t="n">
-        <v>66.05</v>
+        <v>115</v>
       </c>
       <c r="S46" t="n">
-        <v>445.04</v>
+        <v>117.63</v>
       </c>
       <c r="T46" t="n">
-        <v>5.01</v>
+        <v>30.01</v>
       </c>
       <c r="U46" t="n">
-        <v>267.02</v>
+        <v>70.58</v>
       </c>
       <c r="V46" t="n">
-        <v>178.01</v>
+        <v>47.05</v>
       </c>
       <c r="W46" t="n">
-        <v>5.29</v>
+        <v>5.97</v>
       </c>
       <c r="X46" t="n">
-        <v>12.93</v>
+        <v>27.49</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.05</v>
+        <v>115</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.382</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-06-15 16:43:48</t>
+          <t>2026-06-16 09:09:08</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5549,7 +5799,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.425</t>
+          <t>Mouse session - Score: 0.294</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5559,7 +5809,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MOUSE_20260615_001</t>
+          <t>MOUSE_20260616_001</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5572,12 +5822,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-06-15</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>16:43:48</t>
+          <t>09:09:08</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5586,58 +5836,58 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>24662</v>
+        <v>23227</v>
       </c>
       <c r="L47" t="n">
-        <v>24662</v>
+        <v>23227</v>
       </c>
       <c r="M47" t="n">
-        <v>38215.24</v>
+        <v>39140.33</v>
       </c>
       <c r="N47" t="n">
-        <v>22929.15</v>
+        <v>23484.2</v>
       </c>
       <c r="O47" t="n">
-        <v>15286.1</v>
+        <v>15656.13</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="R47" t="n">
-        <v>134.7</v>
+        <v>118.79</v>
       </c>
       <c r="S47" t="n">
-        <v>283.7</v>
+        <v>329.5</v>
       </c>
       <c r="T47" t="n">
-        <v>31.66</v>
+        <v>46.83</v>
       </c>
       <c r="U47" t="n">
-        <v>170.22</v>
+        <v>197.7</v>
       </c>
       <c r="V47" t="n">
-        <v>113.48</v>
+        <v>131.8</v>
       </c>
       <c r="W47" t="n">
-        <v>27.62</v>
+        <v>14.05</v>
       </c>
       <c r="X47" t="n">
-        <v>28.99</v>
+        <v>14.34</v>
       </c>
       <c r="Y47" t="n">
-        <v>134.7</v>
+        <v>118.79</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.425</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-06-15 14:49:43</t>
+          <t>2026-06-16 09:30:32</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5647,7 +5897,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.315</t>
+          <t>Mouse session - Score: 0.281</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5657,7 +5907,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MOUSE_20260615_002</t>
+          <t>MOUSE_20260616_002</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5670,12 +5920,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-06-15</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>14:49:43</t>
+          <t>09:30:32</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -5684,58 +5934,58 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>27416</v>
+        <v>7046</v>
       </c>
       <c r="L48" t="n">
-        <v>27416</v>
+        <v>7046</v>
       </c>
       <c r="M48" t="n">
-        <v>5817.76</v>
+        <v>24907.06</v>
       </c>
       <c r="N48" t="n">
-        <v>3490.65</v>
+        <v>14944.23</v>
       </c>
       <c r="O48" t="n">
-        <v>2327.1</v>
+        <v>9962.82</v>
       </c>
       <c r="P48" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q48" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="R48" t="n">
-        <v>92.72</v>
+        <v>37.12</v>
       </c>
       <c r="S48" t="n">
-        <v>62.75</v>
+        <v>670.95</v>
       </c>
       <c r="T48" t="n">
-        <v>23.26</v>
+        <v>43.28</v>
       </c>
       <c r="U48" t="n">
-        <v>37.65</v>
+        <v>402.57</v>
       </c>
       <c r="V48" t="n">
-        <v>25.1</v>
+        <v>268.38</v>
       </c>
       <c r="W48" t="n">
-        <v>10.97</v>
+        <v>21.11</v>
       </c>
       <c r="X48" t="n">
-        <v>5.47</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="Y48" t="n">
-        <v>92.72</v>
+        <v>37.12</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.315</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-06-15 14:25:00</t>
+          <t>2026-06-16 14:16:23</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5745,7 +5995,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.373</t>
+          <t>Mouse session - Score: 0.318</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5755,7 +6005,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MOUSE_20260615_003</t>
+          <t>MOUSE_20260616_003</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5768,12 +6018,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-06-15</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>14:25:00</t>
+          <t>14:16:23</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5782,58 +6032,58 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>21061</v>
+        <v>18653</v>
       </c>
       <c r="L49" t="n">
-        <v>21061</v>
+        <v>18653</v>
       </c>
       <c r="M49" t="n">
-        <v>5074.27</v>
+        <v>9200.700000000001</v>
       </c>
       <c r="N49" t="n">
-        <v>3044.56</v>
+        <v>5520.42</v>
       </c>
       <c r="O49" t="n">
-        <v>2029.71</v>
+        <v>3680.28</v>
       </c>
       <c r="P49" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="Q49" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>119.78</v>
+        <v>109.36</v>
       </c>
       <c r="S49" t="n">
-        <v>42.36</v>
+        <v>84.13</v>
       </c>
       <c r="T49" t="n">
-        <v>39.34</v>
+        <v>25.41</v>
       </c>
       <c r="U49" t="n">
-        <v>25.42</v>
+        <v>50.48</v>
       </c>
       <c r="V49" t="n">
-        <v>16.95</v>
+        <v>33.65</v>
       </c>
       <c r="W49" t="n">
-        <v>6.99</v>
+        <v>20.58</v>
       </c>
       <c r="X49" t="n">
-        <v>16.22</v>
+        <v>17.81</v>
       </c>
       <c r="Y49" t="n">
-        <v>119.78</v>
+        <v>109.36</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.373</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-06-16 17:55:18</t>
+          <t>2026-06-17 11:50:42</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5843,7 +6093,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.380</t>
+          <t>Mouse session - Score: 0.422</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5853,7 +6103,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MOUSE_20260616_000</t>
+          <t>MOUSE_20260617_000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5866,12 +6116,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-17</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>17:55:18</t>
+          <t>11:50:42</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -5880,58 +6130,58 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>17960</v>
+        <v>27444</v>
       </c>
       <c r="L50" t="n">
-        <v>17960</v>
+        <v>27444</v>
       </c>
       <c r="M50" t="n">
-        <v>27143.59</v>
+        <v>29080.63</v>
       </c>
       <c r="N50" t="n">
-        <v>16286.16</v>
+        <v>17448.38</v>
       </c>
       <c r="O50" t="n">
-        <v>10857.44</v>
+        <v>11632.25</v>
       </c>
       <c r="P50" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="Q50" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R50" t="n">
-        <v>81.48999999999999</v>
+        <v>130.01</v>
       </c>
       <c r="S50" t="n">
-        <v>333.1</v>
+        <v>223.68</v>
       </c>
       <c r="T50" t="n">
-        <v>5.81</v>
+        <v>14.44</v>
       </c>
       <c r="U50" t="n">
-        <v>199.86</v>
+        <v>134.21</v>
       </c>
       <c r="V50" t="n">
-        <v>133.24</v>
+        <v>89.47</v>
       </c>
       <c r="W50" t="n">
-        <v>5.19</v>
+        <v>26.61</v>
       </c>
       <c r="X50" t="n">
-        <v>14.47</v>
+        <v>27.85</v>
       </c>
       <c r="Y50" t="n">
-        <v>81.48999999999999</v>
+        <v>130.01</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.38</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-06-16 17:41:48</t>
+          <t>2026-06-17 16:28:58</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5941,7 +6191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.326</t>
+          <t>Mouse session - Score: 0.306</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5951,7 +6201,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MOUSE_20260616_001</t>
+          <t>MOUSE_20260617_001</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5964,12 +6214,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-17</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>17:41:48</t>
+          <t>16:28:58</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5978,58 +6228,58 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>23719</v>
+        <v>29974</v>
       </c>
       <c r="L51" t="n">
-        <v>23719</v>
+        <v>29974</v>
       </c>
       <c r="M51" t="n">
-        <v>24848.72</v>
+        <v>20747.74</v>
       </c>
       <c r="N51" t="n">
-        <v>14909.23</v>
+        <v>12448.64</v>
       </c>
       <c r="O51" t="n">
-        <v>9939.49</v>
+        <v>8299.1</v>
       </c>
       <c r="P51" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R51" t="n">
-        <v>80.59999999999999</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="S51" t="n">
-        <v>308.31</v>
+        <v>229.36</v>
       </c>
       <c r="T51" t="n">
-        <v>40.6</v>
+        <v>19.25</v>
       </c>
       <c r="U51" t="n">
-        <v>184.99</v>
+        <v>137.62</v>
       </c>
       <c r="V51" t="n">
-        <v>123.32</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="W51" t="n">
-        <v>6.13</v>
+        <v>10.11</v>
       </c>
       <c r="X51" t="n">
-        <v>27.06</v>
+        <v>16.92</v>
       </c>
       <c r="Y51" t="n">
-        <v>80.59999999999999</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.326</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-06-16 11:17:06</t>
+          <t>2026-06-17 16:23:09</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6039,7 +6289,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.920</t>
+          <t>Mouse session - Score: 0.419</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -6049,25 +6299,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MOUSE_20260616_002</t>
+          <t>MOUSE_20260617_002</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-17</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>11:17:06</t>
+          <t>16:23:09</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -6076,58 +6326,58 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>14857</v>
+        <v>24533</v>
       </c>
       <c r="L52" t="n">
-        <v>14857</v>
+        <v>24533</v>
       </c>
       <c r="M52" t="n">
-        <v>33470.57</v>
+        <v>37872.32</v>
       </c>
       <c r="N52" t="n">
-        <v>20082.34</v>
+        <v>22723.39</v>
       </c>
       <c r="O52" t="n">
-        <v>13388.23</v>
+        <v>15148.93</v>
       </c>
       <c r="P52" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="Q52" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R52" t="n">
-        <v>147.01</v>
+        <v>103.87</v>
       </c>
       <c r="S52" t="n">
-        <v>227.68</v>
+        <v>364.6</v>
       </c>
       <c r="T52" t="n">
-        <v>30.05</v>
+        <v>34.91</v>
       </c>
       <c r="U52" t="n">
-        <v>136.61</v>
+        <v>218.76</v>
       </c>
       <c r="V52" t="n">
-        <v>91.06999999999999</v>
+        <v>145.84</v>
       </c>
       <c r="W52" t="n">
-        <v>22.73</v>
+        <v>15.78</v>
       </c>
       <c r="X52" t="n">
-        <v>13.57</v>
+        <v>27</v>
       </c>
       <c r="Y52" t="n">
-        <v>147.01</v>
+        <v>103.87</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.92</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-06-16 15:54:22</t>
+          <t>2026-06-17 10:19:32</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6137,7 +6387,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.412</t>
+          <t>Mouse session - Score: 0.374</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -6147,7 +6397,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MOUSE_20260616_003</t>
+          <t>MOUSE_20260617_003</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6160,12 +6410,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-17</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>15:54:22</t>
+          <t>10:19:32</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -6174,58 +6424,58 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>23568</v>
+        <v>21212</v>
       </c>
       <c r="L53" t="n">
-        <v>23568</v>
+        <v>21212</v>
       </c>
       <c r="M53" t="n">
-        <v>13454.48</v>
+        <v>26699.79</v>
       </c>
       <c r="N53" t="n">
-        <v>8072.69</v>
+        <v>16019.87</v>
       </c>
       <c r="O53" t="n">
-        <v>5381.79</v>
+        <v>10679.92</v>
       </c>
       <c r="P53" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="R53" t="n">
-        <v>59.41</v>
+        <v>137.32</v>
       </c>
       <c r="S53" t="n">
-        <v>226.46</v>
+        <v>194.44</v>
       </c>
       <c r="T53" t="n">
-        <v>36.02</v>
+        <v>32.02</v>
       </c>
       <c r="U53" t="n">
-        <v>135.88</v>
+        <v>116.66</v>
       </c>
       <c r="V53" t="n">
-        <v>90.58</v>
+        <v>77.78</v>
       </c>
       <c r="W53" t="n">
-        <v>15.13</v>
+        <v>20</v>
       </c>
       <c r="X53" t="n">
-        <v>12.02</v>
+        <v>26.16</v>
       </c>
       <c r="Y53" t="n">
-        <v>59.41</v>
+        <v>137.32</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.412</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-06-17 11:36:22</t>
+          <t>2026-06-18 10:58:01</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6235,7 +6485,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.344</t>
+          <t>Mouse session - Score: 0.334</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -6245,7 +6495,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MOUSE_20260617_000</t>
+          <t>MOUSE_20260618_000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6258,12 +6508,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>11:36:22</t>
+          <t>10:58:01</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -6272,58 +6522,58 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>7108</v>
+        <v>28251</v>
       </c>
       <c r="L54" t="n">
-        <v>7108</v>
+        <v>28251</v>
       </c>
       <c r="M54" t="n">
-        <v>30775.98</v>
+        <v>21890.82</v>
       </c>
       <c r="N54" t="n">
-        <v>18465.59</v>
+        <v>13134.49</v>
       </c>
       <c r="O54" t="n">
-        <v>12310.39</v>
+        <v>8756.33</v>
       </c>
       <c r="P54" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="Q54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R54" t="n">
-        <v>53.68</v>
+        <v>59.8</v>
       </c>
       <c r="S54" t="n">
-        <v>573.3200000000001</v>
+        <v>366.07</v>
       </c>
       <c r="T54" t="n">
-        <v>29.58</v>
+        <v>8.68</v>
       </c>
       <c r="U54" t="n">
-        <v>343.99</v>
+        <v>219.64</v>
       </c>
       <c r="V54" t="n">
-        <v>229.33</v>
+        <v>146.43</v>
       </c>
       <c r="W54" t="n">
-        <v>4.3</v>
+        <v>23.98</v>
       </c>
       <c r="X54" t="n">
-        <v>15.85</v>
+        <v>18.6</v>
       </c>
       <c r="Y54" t="n">
-        <v>53.68</v>
+        <v>59.8</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.344</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-06-17 10:23:40</t>
+          <t>2026-06-18 12:21:20</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6333,7 +6583,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.255</t>
+          <t>Mouse session - Score: 0.422</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6343,7 +6593,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MOUSE_20260617_001</t>
+          <t>MOUSE_20260618_001</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6356,12 +6606,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10:23:40</t>
+          <t>12:21:20</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6370,58 +6620,58 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>26446</v>
+        <v>15806</v>
       </c>
       <c r="L55" t="n">
-        <v>26446</v>
+        <v>15806</v>
       </c>
       <c r="M55" t="n">
-        <v>24869.77</v>
+        <v>7381.57</v>
       </c>
       <c r="N55" t="n">
-        <v>14921.86</v>
+        <v>4428.94</v>
       </c>
       <c r="O55" t="n">
-        <v>9947.91</v>
+        <v>2952.63</v>
       </c>
       <c r="P55" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="Q55" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R55" t="n">
-        <v>120.9</v>
+        <v>40.7</v>
       </c>
       <c r="S55" t="n">
-        <v>205.7</v>
+        <v>181.35</v>
       </c>
       <c r="T55" t="n">
-        <v>44.58</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="U55" t="n">
-        <v>123.42</v>
+        <v>108.81</v>
       </c>
       <c r="V55" t="n">
-        <v>82.28</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="W55" t="n">
-        <v>28.61</v>
+        <v>21.19</v>
       </c>
       <c r="X55" t="n">
-        <v>17.2</v>
+        <v>10.93</v>
       </c>
       <c r="Y55" t="n">
-        <v>120.9</v>
+        <v>40.7</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.255</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-06-17 12:14:06</t>
+          <t>2026-06-18 15:37:29</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6431,7 +6681,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.908</t>
+          <t>Mouse session - Score: 0.406</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -6441,25 +6691,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MOUSE_20260617_002</t>
+          <t>MOUSE_20260618_002</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>12:14:06</t>
+          <t>15:37:29</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -6468,58 +6718,58 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>13712</v>
+        <v>29507</v>
       </c>
       <c r="L56" t="n">
-        <v>13712</v>
+        <v>29507</v>
       </c>
       <c r="M56" t="n">
-        <v>9207.959999999999</v>
+        <v>33198.35</v>
       </c>
       <c r="N56" t="n">
-        <v>5524.77</v>
+        <v>19919.01</v>
       </c>
       <c r="O56" t="n">
-        <v>3683.18</v>
+        <v>13279.34</v>
       </c>
       <c r="P56" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q56" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
-        <v>50.89</v>
+        <v>71.5</v>
       </c>
       <c r="S56" t="n">
-        <v>180.95</v>
+        <v>464.28</v>
       </c>
       <c r="T56" t="n">
-        <v>41.06</v>
+        <v>29.95</v>
       </c>
       <c r="U56" t="n">
-        <v>108.57</v>
+        <v>278.57</v>
       </c>
       <c r="V56" t="n">
-        <v>72.38</v>
+        <v>185.71</v>
       </c>
       <c r="W56" t="n">
-        <v>14.12</v>
+        <v>27.71</v>
       </c>
       <c r="X56" t="n">
-        <v>24.18</v>
+        <v>2.56</v>
       </c>
       <c r="Y56" t="n">
-        <v>50.89</v>
+        <v>71.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.908</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-06-17 10:07:30</t>
+          <t>2026-06-18 09:23:40</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6529,7 +6779,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.345</t>
+          <t>Mouse session - Score: 0.325</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -6539,7 +6789,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MOUSE_20260617_003</t>
+          <t>MOUSE_20260618_003</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6552,12 +6802,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>10:07:30</t>
+          <t>09:23:40</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -6566,58 +6816,58 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>25627</v>
+        <v>29517</v>
       </c>
       <c r="L57" t="n">
-        <v>25627</v>
+        <v>29517</v>
       </c>
       <c r="M57" t="n">
-        <v>32051.52</v>
+        <v>31391.59</v>
       </c>
       <c r="N57" t="n">
-        <v>19230.91</v>
+        <v>18834.95</v>
       </c>
       <c r="O57" t="n">
-        <v>12820.61</v>
+        <v>12556.64</v>
       </c>
       <c r="P57" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q57" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R57" t="n">
-        <v>63.79</v>
+        <v>65.95</v>
       </c>
       <c r="S57" t="n">
-        <v>502.46</v>
+        <v>475.99</v>
       </c>
       <c r="T57" t="n">
-        <v>37.27</v>
+        <v>34.62</v>
       </c>
       <c r="U57" t="n">
-        <v>301.48</v>
+        <v>285.59</v>
       </c>
       <c r="V57" t="n">
-        <v>200.99</v>
+        <v>190.4</v>
       </c>
       <c r="W57" t="n">
-        <v>21.15</v>
+        <v>17.78</v>
       </c>
       <c r="X57" t="n">
-        <v>26.35</v>
+        <v>24.38</v>
       </c>
       <c r="Y57" t="n">
-        <v>63.79</v>
+        <v>65.95</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.345</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-06-18 15:44:47</t>
+          <t>2026-06-19 17:01:11</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6627,7 +6877,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.388</t>
+          <t>Mouse session - Score: 0.302</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6637,7 +6887,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MOUSE_20260618_000</t>
+          <t>MOUSE_20260619_000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6650,12 +6900,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>15:44:47</t>
+          <t>17:01:11</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -6664,58 +6914,58 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>19481</v>
+        <v>21875</v>
       </c>
       <c r="L58" t="n">
-        <v>19481</v>
+        <v>21875</v>
       </c>
       <c r="M58" t="n">
-        <v>8636.450000000001</v>
+        <v>7837.1</v>
       </c>
       <c r="N58" t="n">
-        <v>5181.87</v>
+        <v>4702.26</v>
       </c>
       <c r="O58" t="n">
-        <v>3454.58</v>
+        <v>3134.84</v>
       </c>
       <c r="P58" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R58" t="n">
-        <v>113.1</v>
+        <v>64.13</v>
       </c>
       <c r="S58" t="n">
-        <v>76.36</v>
+        <v>122.21</v>
       </c>
       <c r="T58" t="n">
-        <v>14.92</v>
+        <v>42.36</v>
       </c>
       <c r="U58" t="n">
-        <v>45.82</v>
+        <v>73.33</v>
       </c>
       <c r="V58" t="n">
-        <v>30.54</v>
+        <v>48.89</v>
       </c>
       <c r="W58" t="n">
-        <v>27.31</v>
+        <v>10.72</v>
       </c>
       <c r="X58" t="n">
-        <v>14.96</v>
+        <v>23.93</v>
       </c>
       <c r="Y58" t="n">
-        <v>113.1</v>
+        <v>64.13</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.388</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-06-18 14:30:13</t>
+          <t>2026-06-19 14:30:33</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6725,7 +6975,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.294</t>
+          <t>Mouse session - Score: 0.422</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6735,7 +6985,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MOUSE_20260618_001</t>
+          <t>MOUSE_20260619_001</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6748,12 +6998,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>14:30:13</t>
+          <t>14:30:33</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -6762,58 +7012,58 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>27650</v>
+        <v>8078</v>
       </c>
       <c r="L59" t="n">
-        <v>27650</v>
+        <v>8078</v>
       </c>
       <c r="M59" t="n">
-        <v>14905.1</v>
+        <v>20099.93</v>
       </c>
       <c r="N59" t="n">
-        <v>8943.059999999999</v>
+        <v>12059.96</v>
       </c>
       <c r="O59" t="n">
-        <v>5962.04</v>
+        <v>8039.97</v>
       </c>
       <c r="P59" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="Q59" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R59" t="n">
-        <v>73.2</v>
+        <v>162.38</v>
       </c>
       <c r="S59" t="n">
-        <v>203.62</v>
+        <v>123.78</v>
       </c>
       <c r="T59" t="n">
-        <v>36.82</v>
+        <v>16.13</v>
       </c>
       <c r="U59" t="n">
-        <v>122.17</v>
+        <v>74.27</v>
       </c>
       <c r="V59" t="n">
-        <v>81.45</v>
+        <v>49.51</v>
       </c>
       <c r="W59" t="n">
-        <v>11.84</v>
+        <v>18.59</v>
       </c>
       <c r="X59" t="n">
-        <v>25.38</v>
+        <v>22.01</v>
       </c>
       <c r="Y59" t="n">
-        <v>73.2</v>
+        <v>162.38</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.294</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-06-18 13:05:38</t>
+          <t>2026-06-19 15:30:09</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6823,7 +7073,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.295</t>
+          <t>Mouse session - Score: 0.299</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6833,7 +7083,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MOUSE_20260618_002</t>
+          <t>MOUSE_20260619_002</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6846,12 +7096,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>13:05:38</t>
+          <t>15:30:09</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -6860,58 +7110,58 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>28045</v>
+        <v>7645</v>
       </c>
       <c r="L60" t="n">
-        <v>28045</v>
+        <v>7645</v>
       </c>
       <c r="M60" t="n">
-        <v>24517.32</v>
+        <v>24365.52</v>
       </c>
       <c r="N60" t="n">
-        <v>14710.39</v>
+        <v>14619.31</v>
       </c>
       <c r="O60" t="n">
-        <v>9806.93</v>
+        <v>9746.209999999999</v>
       </c>
       <c r="P60" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="Q60" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R60" t="n">
-        <v>111.87</v>
+        <v>37.79</v>
       </c>
       <c r="S60" t="n">
-        <v>219.16</v>
+        <v>644.8099999999999</v>
       </c>
       <c r="T60" t="n">
-        <v>7</v>
+        <v>22.61</v>
       </c>
       <c r="U60" t="n">
-        <v>131.49</v>
+        <v>386.89</v>
       </c>
       <c r="V60" t="n">
-        <v>87.66</v>
+        <v>257.92</v>
       </c>
       <c r="W60" t="n">
-        <v>7.36</v>
+        <v>23.54</v>
       </c>
       <c r="X60" t="n">
-        <v>3.72</v>
+        <v>14.13</v>
       </c>
       <c r="Y60" t="n">
-        <v>111.87</v>
+        <v>37.79</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.295</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-06-18 13:23:07</t>
+          <t>2026-06-19 16:26:46</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6921,7 +7171,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.376</t>
+          <t>Mouse session - Score: 0.419</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6931,7 +7181,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MOUSE_20260618_003</t>
+          <t>MOUSE_20260619_003</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6944,12 +7194,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>13:23:07</t>
+          <t>16:26:46</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -6958,58 +7208,58 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>23925</v>
+        <v>29397</v>
       </c>
       <c r="L61" t="n">
-        <v>23925</v>
+        <v>29397</v>
       </c>
       <c r="M61" t="n">
-        <v>33419.8</v>
+        <v>14268.59</v>
       </c>
       <c r="N61" t="n">
-        <v>20051.88</v>
+        <v>8561.15</v>
       </c>
       <c r="O61" t="n">
-        <v>13367.92</v>
+        <v>5707.44</v>
       </c>
       <c r="P61" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Q61" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="R61" t="n">
-        <v>58.83</v>
+        <v>149.08</v>
       </c>
       <c r="S61" t="n">
-        <v>568.1</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="T61" t="n">
-        <v>14.17</v>
+        <v>25.98</v>
       </c>
       <c r="U61" t="n">
-        <v>340.86</v>
+        <v>57.43</v>
       </c>
       <c r="V61" t="n">
-        <v>227.24</v>
+        <v>38.28</v>
       </c>
       <c r="W61" t="n">
-        <v>18.19</v>
+        <v>22.66</v>
       </c>
       <c r="X61" t="n">
-        <v>29.71</v>
+        <v>20.96</v>
       </c>
       <c r="Y61" t="n">
-        <v>58.83</v>
+        <v>149.08</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.376</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026-06-19 10:50:31</t>
+          <t>2026-06-22 13:37:41</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7019,7 +7269,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.352</t>
+          <t>Mouse session - Score: 0.425</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -7029,7 +7279,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MOUSE_20260619_000</t>
+          <t>MOUSE_20260622_000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7042,12 +7292,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>10:50:31</t>
+          <t>13:37:41</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -7056,58 +7306,58 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>7735</v>
+        <v>22505</v>
       </c>
       <c r="L62" t="n">
-        <v>7735</v>
+        <v>22505</v>
       </c>
       <c r="M62" t="n">
-        <v>27844.04</v>
+        <v>24276.68</v>
       </c>
       <c r="N62" t="n">
-        <v>16706.43</v>
+        <v>14566.01</v>
       </c>
       <c r="O62" t="n">
-        <v>11137.62</v>
+        <v>9710.67</v>
       </c>
       <c r="P62" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q62" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R62" t="n">
-        <v>170.9</v>
+        <v>32.69</v>
       </c>
       <c r="S62" t="n">
-        <v>162.93</v>
+        <v>742.6799999999999</v>
       </c>
       <c r="T62" t="n">
-        <v>40.45</v>
+        <v>32.5</v>
       </c>
       <c r="U62" t="n">
-        <v>97.76000000000001</v>
+        <v>445.61</v>
       </c>
       <c r="V62" t="n">
-        <v>65.17</v>
+        <v>297.07</v>
       </c>
       <c r="W62" t="n">
-        <v>20.14</v>
+        <v>7.74</v>
       </c>
       <c r="X62" t="n">
-        <v>26.93</v>
+        <v>9.51</v>
       </c>
       <c r="Y62" t="n">
-        <v>170.9</v>
+        <v>32.69</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.352</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-06-19 17:59:52</t>
+          <t>2026-06-22 16:44:13</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7117,7 +7367,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.918</t>
+          <t>Mouse session - Score: 0.272</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7127,25 +7377,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MOUSE_20260619_001</t>
+          <t>MOUSE_20260622_001</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>17:59:52</t>
+          <t>16:44:13</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -7154,58 +7404,58 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>24830</v>
+        <v>10348</v>
       </c>
       <c r="L63" t="n">
-        <v>24830</v>
+        <v>10348</v>
       </c>
       <c r="M63" t="n">
-        <v>22360.99</v>
+        <v>32719.06</v>
       </c>
       <c r="N63" t="n">
-        <v>13416.6</v>
+        <v>19631.44</v>
       </c>
       <c r="O63" t="n">
-        <v>8944.4</v>
+        <v>13087.62</v>
       </c>
       <c r="P63" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q63" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R63" t="n">
-        <v>85.58</v>
+        <v>142.37</v>
       </c>
       <c r="S63" t="n">
-        <v>261.3</v>
+        <v>229.81</v>
       </c>
       <c r="T63" t="n">
-        <v>5.9</v>
+        <v>25.55</v>
       </c>
       <c r="U63" t="n">
-        <v>156.78</v>
+        <v>137.89</v>
       </c>
       <c r="V63" t="n">
-        <v>104.52</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="W63" t="n">
-        <v>3.18</v>
+        <v>11.89</v>
       </c>
       <c r="X63" t="n">
-        <v>17.26</v>
+        <v>26.12</v>
       </c>
       <c r="Y63" t="n">
-        <v>85.58</v>
+        <v>142.37</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.918</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-06-19 13:53:27</t>
+          <t>2026-06-22 11:41:29</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7215,7 +7465,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.301</t>
+          <t>Mouse session - Score: 0.376</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7225,7 +7475,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MOUSE_20260619_002</t>
+          <t>MOUSE_20260622_002</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7238,12 +7488,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>13:53:27</t>
+          <t>11:41:29</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -7252,58 +7502,58 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>14833</v>
+        <v>12685</v>
       </c>
       <c r="L64" t="n">
-        <v>14833</v>
+        <v>12685</v>
       </c>
       <c r="M64" t="n">
-        <v>8509.5</v>
+        <v>18214.35</v>
       </c>
       <c r="N64" t="n">
-        <v>5105.7</v>
+        <v>10928.61</v>
       </c>
       <c r="O64" t="n">
-        <v>3403.8</v>
+        <v>7285.74</v>
       </c>
       <c r="P64" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="Q64" t="n">
         <v>30</v>
       </c>
       <c r="R64" t="n">
-        <v>82.23999999999999</v>
+        <v>31.6</v>
       </c>
       <c r="S64" t="n">
-        <v>103.47</v>
+        <v>576.47</v>
       </c>
       <c r="T64" t="n">
-        <v>23.91</v>
+        <v>41.36</v>
       </c>
       <c r="U64" t="n">
-        <v>62.08</v>
+        <v>345.88</v>
       </c>
       <c r="V64" t="n">
-        <v>41.39</v>
+        <v>230.59</v>
       </c>
       <c r="W64" t="n">
-        <v>5.22</v>
+        <v>28.01</v>
       </c>
       <c r="X64" t="n">
-        <v>8.699999999999999</v>
+        <v>17.72</v>
       </c>
       <c r="Y64" t="n">
-        <v>82.23999999999999</v>
+        <v>31.6</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.301</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-06-19 09:34:28</t>
+          <t>2026-06-22 15:02:29</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -7313,7 +7563,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.257</t>
+          <t>Mouse session - Score: 0.347</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -7323,7 +7573,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MOUSE_20260619_003</t>
+          <t>MOUSE_20260622_003</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7336,12 +7586,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>09:34:28</t>
+          <t>15:02:29</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -7350,58 +7600,58 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>14975</v>
+        <v>5324</v>
       </c>
       <c r="L65" t="n">
-        <v>14975</v>
+        <v>5324</v>
       </c>
       <c r="M65" t="n">
-        <v>28447.43</v>
+        <v>29723.32</v>
       </c>
       <c r="N65" t="n">
-        <v>17068.46</v>
+        <v>17833.99</v>
       </c>
       <c r="O65" t="n">
-        <v>11378.97</v>
+        <v>11889.33</v>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="Q65" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="R65" t="n">
-        <v>86.31999999999999</v>
+        <v>102.15</v>
       </c>
       <c r="S65" t="n">
-        <v>329.55</v>
+        <v>290.97</v>
       </c>
       <c r="T65" t="n">
-        <v>14.69</v>
+        <v>16.46</v>
       </c>
       <c r="U65" t="n">
-        <v>197.73</v>
+        <v>174.58</v>
       </c>
       <c r="V65" t="n">
-        <v>131.82</v>
+        <v>116.39</v>
       </c>
       <c r="W65" t="n">
-        <v>27.2</v>
+        <v>13.16</v>
       </c>
       <c r="X65" t="n">
-        <v>11.71</v>
+        <v>8.1</v>
       </c>
       <c r="Y65" t="n">
-        <v>86.31999999999999</v>
+        <v>102.15</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.257</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-06-22 12:58:03</t>
+          <t>2026-06-23 11:59:17</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7411,7 +7661,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.373</t>
+          <t>Mouse session - Score: 0.338</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -7421,7 +7671,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MOUSE_20260622_000</t>
+          <t>MOUSE_20260623_000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7434,12 +7684,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>12:58:03</t>
+          <t>11:59:17</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -7448,58 +7698,58 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>25124</v>
+        <v>22436</v>
       </c>
       <c r="L66" t="n">
-        <v>25124</v>
+        <v>22436</v>
       </c>
       <c r="M66" t="n">
-        <v>35120.01</v>
+        <v>32999.56</v>
       </c>
       <c r="N66" t="n">
-        <v>21072.01</v>
+        <v>19799.73</v>
       </c>
       <c r="O66" t="n">
-        <v>14048</v>
+        <v>13199.82</v>
       </c>
       <c r="P66" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q66" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="R66" t="n">
-        <v>158.43</v>
+        <v>37.27</v>
       </c>
       <c r="S66" t="n">
-        <v>221.68</v>
+        <v>885.42</v>
       </c>
       <c r="T66" t="n">
-        <v>8</v>
+        <v>27.1</v>
       </c>
       <c r="U66" t="n">
-        <v>133.01</v>
+        <v>531.25</v>
       </c>
       <c r="V66" t="n">
-        <v>88.67</v>
+        <v>354.17</v>
       </c>
       <c r="W66" t="n">
         <v>18.75</v>
       </c>
       <c r="X66" t="n">
-        <v>6.94</v>
+        <v>18.12</v>
       </c>
       <c r="Y66" t="n">
-        <v>158.43</v>
+        <v>37.27</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.373</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-06-22 17:03:51</t>
+          <t>2026-06-23 12:15:38</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7509,7 +7759,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.373</t>
+          <t>Mouse session - Score: 0.417</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7519,7 +7769,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MOUSE_20260622_001</t>
+          <t>MOUSE_20260623_001</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7532,12 +7782,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>17:03:51</t>
+          <t>12:15:38</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -7546,58 +7796,58 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>12989</v>
+        <v>13112</v>
       </c>
       <c r="L67" t="n">
-        <v>12989</v>
+        <v>13112</v>
       </c>
       <c r="M67" t="n">
-        <v>8023.95</v>
+        <v>6829.46</v>
       </c>
       <c r="N67" t="n">
-        <v>4814.37</v>
+        <v>4097.67</v>
       </c>
       <c r="O67" t="n">
-        <v>3209.58</v>
+        <v>2731.78</v>
       </c>
       <c r="P67" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R67" t="n">
-        <v>156.8</v>
+        <v>31</v>
       </c>
       <c r="S67" t="n">
-        <v>51.17</v>
+        <v>220.33</v>
       </c>
       <c r="T67" t="n">
-        <v>24.22</v>
+        <v>36.2</v>
       </c>
       <c r="U67" t="n">
-        <v>30.7</v>
+        <v>132.2</v>
       </c>
       <c r="V67" t="n">
-        <v>20.47</v>
+        <v>88.13</v>
       </c>
       <c r="W67" t="n">
-        <v>24.2</v>
+        <v>8.66</v>
       </c>
       <c r="X67" t="n">
-        <v>29.37</v>
+        <v>11.51</v>
       </c>
       <c r="Y67" t="n">
-        <v>156.8</v>
+        <v>31</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.373</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026-06-22 11:49:17</t>
+          <t>2026-06-23 12:15:24</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7607,7 +7857,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.417</t>
+          <t>Mouse session - Score: 0.823</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -7617,25 +7867,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MOUSE_20260622_002</t>
+          <t>MOUSE_20260623_002</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>11:49:17</t>
+          <t>12:15:24</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -7644,58 +7894,58 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>7405</v>
+        <v>18552</v>
       </c>
       <c r="L68" t="n">
-        <v>7405</v>
+        <v>18552</v>
       </c>
       <c r="M68" t="n">
-        <v>27522.16</v>
+        <v>34897.43</v>
       </c>
       <c r="N68" t="n">
-        <v>16513.29</v>
+        <v>20938.46</v>
       </c>
       <c r="O68" t="n">
-        <v>11008.86</v>
+        <v>13958.97</v>
       </c>
       <c r="P68" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="Q68" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="R68" t="n">
-        <v>71.56</v>
+        <v>158.96</v>
       </c>
       <c r="S68" t="n">
-        <v>384.63</v>
+        <v>219.54</v>
       </c>
       <c r="T68" t="n">
-        <v>34.72</v>
+        <v>47.04</v>
       </c>
       <c r="U68" t="n">
-        <v>230.78</v>
+        <v>131.72</v>
       </c>
       <c r="V68" t="n">
-        <v>153.85</v>
+        <v>87.81</v>
       </c>
       <c r="W68" t="n">
-        <v>22.68</v>
+        <v>15.24</v>
       </c>
       <c r="X68" t="n">
-        <v>11.58</v>
+        <v>18.1</v>
       </c>
       <c r="Y68" t="n">
-        <v>71.56</v>
+        <v>158.96</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.417</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2026-06-22 15:09:13</t>
+          <t>2026-06-23 15:01:43</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7705,7 +7955,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.390</t>
+          <t>Mouse session - Score: 0.304</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7715,7 +7965,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MOUSE_20260622_003</t>
+          <t>MOUSE_20260623_003</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7728,12 +7978,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>15:09:13</t>
+          <t>15:01:43</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -7742,58 +7992,58 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>17521</v>
+        <v>29870</v>
       </c>
       <c r="L69" t="n">
-        <v>17521</v>
+        <v>29870</v>
       </c>
       <c r="M69" t="n">
-        <v>22184.91</v>
+        <v>27404.83</v>
       </c>
       <c r="N69" t="n">
-        <v>13310.94</v>
+        <v>16442.9</v>
       </c>
       <c r="O69" t="n">
-        <v>8873.959999999999</v>
+        <v>10961.93</v>
       </c>
       <c r="P69" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="Q69" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R69" t="n">
-        <v>170.23</v>
+        <v>108.61</v>
       </c>
       <c r="S69" t="n">
-        <v>130.32</v>
+        <v>252.31</v>
       </c>
       <c r="T69" t="n">
-        <v>12.41</v>
+        <v>38.21</v>
       </c>
       <c r="U69" t="n">
-        <v>78.19</v>
+        <v>151.39</v>
       </c>
       <c r="V69" t="n">
-        <v>52.13</v>
+        <v>100.92</v>
       </c>
       <c r="W69" t="n">
-        <v>17.5</v>
+        <v>7.59</v>
       </c>
       <c r="X69" t="n">
-        <v>18.44</v>
+        <v>11.93</v>
       </c>
       <c r="Y69" t="n">
-        <v>170.23</v>
+        <v>108.61</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.39</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2026-06-23 17:25:44</t>
+          <t>2026-06-24 17:04:15</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7803,7 +8053,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.420</t>
+          <t>Mouse session - Score: 0.297</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -7813,7 +8063,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MOUSE_20260623_000</t>
+          <t>MOUSE_20260624_000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7826,12 +8076,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-06-23</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>17:25:44</t>
+          <t>17:04:15</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -7840,58 +8090,58 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>27930</v>
+        <v>19689</v>
       </c>
       <c r="L70" t="n">
-        <v>27930</v>
+        <v>19689</v>
       </c>
       <c r="M70" t="n">
-        <v>13611.93</v>
+        <v>27382.37</v>
       </c>
       <c r="N70" t="n">
-        <v>8167.16</v>
+        <v>16429.42</v>
       </c>
       <c r="O70" t="n">
-        <v>5444.77</v>
+        <v>10952.95</v>
       </c>
       <c r="P70" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="Q70" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R70" t="n">
-        <v>38.03</v>
+        <v>112.4</v>
       </c>
       <c r="S70" t="n">
-        <v>357.92</v>
+        <v>243.61</v>
       </c>
       <c r="T70" t="n">
-        <v>41.15</v>
+        <v>18.63</v>
       </c>
       <c r="U70" t="n">
-        <v>214.75</v>
+        <v>146.17</v>
       </c>
       <c r="V70" t="n">
-        <v>143.17</v>
+        <v>97.44</v>
       </c>
       <c r="W70" t="n">
-        <v>6.93</v>
+        <v>18.33</v>
       </c>
       <c r="X70" t="n">
-        <v>7.06</v>
+        <v>3.67</v>
       </c>
       <c r="Y70" t="n">
-        <v>38.03</v>
+        <v>112.4</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.42</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2026-06-23 17:44:00</t>
+          <t>2026-06-24 14:59:07</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7901,7 +8151,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.414</t>
+          <t>Mouse session - Score: 0.257</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -7911,7 +8161,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MOUSE_20260623_001</t>
+          <t>MOUSE_20260624_001</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7924,12 +8174,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-06-23</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>17:44:00</t>
+          <t>14:59:07</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -7938,58 +8188,58 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>12732</v>
+        <v>12175</v>
       </c>
       <c r="L71" t="n">
-        <v>12732</v>
+        <v>12175</v>
       </c>
       <c r="M71" t="n">
-        <v>32267.34</v>
+        <v>10688</v>
       </c>
       <c r="N71" t="n">
-        <v>19360.4</v>
+        <v>6412.8</v>
       </c>
       <c r="O71" t="n">
-        <v>12906.94</v>
+        <v>4275.2</v>
       </c>
       <c r="P71" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q71" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="R71" t="n">
-        <v>57.88</v>
+        <v>166.71</v>
       </c>
       <c r="S71" t="n">
-        <v>557.45</v>
+        <v>64.11</v>
       </c>
       <c r="T71" t="n">
-        <v>33.95</v>
+        <v>45.73</v>
       </c>
       <c r="U71" t="n">
-        <v>334.47</v>
+        <v>38.47</v>
       </c>
       <c r="V71" t="n">
-        <v>222.98</v>
+        <v>25.64</v>
       </c>
       <c r="W71" t="n">
-        <v>11.23</v>
+        <v>11.92</v>
       </c>
       <c r="X71" t="n">
-        <v>2.87</v>
+        <v>8.25</v>
       </c>
       <c r="Y71" t="n">
-        <v>57.88</v>
+        <v>166.71</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.414</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2026-06-23 15:34:31</t>
+          <t>2026-06-24 10:16:41</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7999,7 +8249,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.416</t>
+          <t>Mouse session - Score: 0.254</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -8009,7 +8259,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MOUSE_20260623_002</t>
+          <t>MOUSE_20260624_002</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -8022,12 +8272,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-06-23</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>15:34:31</t>
+          <t>10:16:41</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -8036,58 +8286,58 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>13255</v>
+        <v>11743</v>
       </c>
       <c r="L72" t="n">
-        <v>13255</v>
+        <v>11743</v>
       </c>
       <c r="M72" t="n">
-        <v>11611.72</v>
+        <v>10274.38</v>
       </c>
       <c r="N72" t="n">
-        <v>6967.03</v>
+        <v>6164.63</v>
       </c>
       <c r="O72" t="n">
-        <v>4644.69</v>
+        <v>4109.75</v>
       </c>
       <c r="P72" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q72" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="R72" t="n">
-        <v>76.76000000000001</v>
+        <v>163.38</v>
       </c>
       <c r="S72" t="n">
-        <v>151.27</v>
+        <v>62.89</v>
       </c>
       <c r="T72" t="n">
-        <v>28.85</v>
+        <v>41.48</v>
       </c>
       <c r="U72" t="n">
-        <v>90.76000000000001</v>
+        <v>37.73</v>
       </c>
       <c r="V72" t="n">
-        <v>60.51</v>
+        <v>25.15</v>
       </c>
       <c r="W72" t="n">
-        <v>15.58</v>
+        <v>28.75</v>
       </c>
       <c r="X72" t="n">
-        <v>14.59</v>
+        <v>28.33</v>
       </c>
       <c r="Y72" t="n">
-        <v>76.76000000000001</v>
+        <v>163.38</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.416</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-06-23 12:45:09</t>
+          <t>2026-06-24 11:36:39</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -8097,7 +8347,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.395</t>
+          <t>Mouse session - Score: 0.343</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -8107,7 +8357,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MOUSE_20260623_003</t>
+          <t>MOUSE_20260624_003</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -8120,12 +8370,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-06-23</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>12:45:09</t>
+          <t>11:36:39</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -8134,52 +8384,52 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>24476</v>
+        <v>27543</v>
       </c>
       <c r="L73" t="n">
-        <v>24476</v>
+        <v>27543</v>
       </c>
       <c r="M73" t="n">
-        <v>6362.06</v>
+        <v>31348.3</v>
       </c>
       <c r="N73" t="n">
-        <v>3817.24</v>
+        <v>18808.98</v>
       </c>
       <c r="O73" t="n">
-        <v>2544.83</v>
+        <v>12539.32</v>
       </c>
       <c r="P73" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q73" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="R73" t="n">
-        <v>130.42</v>
+        <v>133.11</v>
       </c>
       <c r="S73" t="n">
-        <v>48.78</v>
+        <v>235.51</v>
       </c>
       <c r="T73" t="n">
-        <v>20.58</v>
+        <v>28.98</v>
       </c>
       <c r="U73" t="n">
-        <v>29.27</v>
+        <v>141.31</v>
       </c>
       <c r="V73" t="n">
-        <v>19.51</v>
+        <v>94.20999999999999</v>
       </c>
       <c r="W73" t="n">
-        <v>29.17</v>
+        <v>7.62</v>
       </c>
       <c r="X73" t="n">
-        <v>12.93</v>
+        <v>26.07</v>
       </c>
       <c r="Y73" t="n">
-        <v>130.42</v>
+        <v>133.11</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.395</v>
+        <v>0.343</v>
       </c>
     </row>
   </sheetData>
@@ -8193,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8256,20 +8506,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-06-01 10:14:00</t>
+          <t>2026-06-01 11:02:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-06-01 15:56:54</t>
+          <t>2026-06-01 17:12:01</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20574</v>
+        <v>22201</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>05:42:00</t>
+          <t>06:10:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -8296,20 +8546,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-06-02 13:49:00</t>
+          <t>2026-06-02 08:35:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-06-02 16:24:22</t>
+          <t>2026-06-02 15:12:02</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9322</v>
+        <v>23822</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>02:35:00</t>
+          <t>06:37:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -8326,7 +8576,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BROWSER_20260602_01</t>
+          <t>BROWSER_20260603_00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8336,25 +8586,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-06-02 15:57:00</t>
+          <t>2026-06-03 09:20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-06-02 18:59:08</t>
+          <t>2026-06-03 11:59:38</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10928</v>
+        <v>9578</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>03:02:00</t>
+          <t>02:39:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -8366,7 +8616,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BROWSER_20260603_00</t>
+          <t>BROWSER_20260603_01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8376,20 +8626,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-06-03 08:37:00</t>
+          <t>2026-06-03 13:54:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-06-03 11:40:32</t>
+          <t>2026-06-03 16:34:09</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11012</v>
+        <v>9609</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>03:03:00</t>
+          <t>02:40:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -8406,7 +8656,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BROWSER_20260603_01</t>
+          <t>BROWSER_20260604_00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8416,25 +8666,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-06-03 13:54:00</t>
+          <t>2026-06-04 08:40:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-06-03 17:03:29</t>
+          <t>2026-06-04 15:24:18</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11369</v>
+        <v>24258</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>03:09:00</t>
+          <t>06:44:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-06-03</t>
+          <t>2026-06-04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -8446,7 +8696,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BROWSER_20260604_00</t>
+          <t>BROWSER_20260605_00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8456,25 +8706,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-06-04 09:54:00</t>
+          <t>2026-06-05 10:10:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-06-04 16:35:55</t>
+          <t>2026-06-05 13:33:40</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24115</v>
+        <v>12220</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>06:41:00</t>
+          <t>03:23:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-06-04</t>
+          <t>2026-06-05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -8486,7 +8736,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BROWSER_20260605_00</t>
+          <t>BROWSER_20260605_01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8496,20 +8746,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-06-05 10:15:00</t>
+          <t>2026-06-05 08:40:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-06-05 12:51:00</t>
+          <t>2026-06-05 11:40:25</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9360</v>
+        <v>10825</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02:36:00</t>
+          <t>03:00:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -8526,7 +8776,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BROWSER_20260605_01</t>
+          <t>BROWSER_20260608_00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -8536,25 +8786,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-06-05 11:31:00</t>
+          <t>2026-06-08 15:56:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-06-05 14:46:13</t>
+          <t>2026-06-08 21:15:56</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>11713</v>
+        <v>19196</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>03:15:00</t>
+          <t>05:19:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -8566,7 +8816,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BROWSER_20260608_00</t>
+          <t>BROWSER_20260609_00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8576,25 +8826,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-06-08 09:00:00</t>
+          <t>2026-06-09 08:15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-06-08 11:34:44</t>
+          <t>2026-06-09 11:36:08</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9284</v>
+        <v>12068</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>02:34:00</t>
+          <t>03:21:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -8606,7 +8856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20260608_01</t>
+          <t>BROWSER_20260609_01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -8616,25 +8866,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-06-08 09:34:00</t>
+          <t>2026-06-09 13:41:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-06-08 12:33:33</t>
+          <t>2026-06-09 17:10:22</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10773</v>
+        <v>12562</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>02:59:00</t>
+          <t>03:29:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -8646,7 +8896,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BROWSER_20260609_00</t>
+          <t>BROWSER_20260610_00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -8656,25 +8906,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-06-09 08:36:00</t>
+          <t>2026-06-10 13:34:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-06-09 11:53:49</t>
+          <t>2026-06-10 16:18:09</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>11869</v>
+        <v>9849</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>03:17:00</t>
+          <t>02:44:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-06-09</t>
+          <t>2026-06-10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -8686,7 +8936,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BROWSER_20260609_01</t>
+          <t>BROWSER_20260610_01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -8696,25 +8946,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-06-09 08:27:00</t>
+          <t>2026-06-10 08:46:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-06-09 11:42:53</t>
+          <t>2026-06-10 11:42:01</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>11753</v>
+        <v>10561</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>03:15:00</t>
+          <t>02:56:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-06-09</t>
+          <t>2026-06-10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -8726,7 +8976,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BROWSER_20260610_00</t>
+          <t>BROWSER_20260611_00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -8736,25 +8986,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-06-10 13:45:00</t>
+          <t>2026-06-11 10:35:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-06-10 19:42:30</t>
+          <t>2026-06-11 13:18:20</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21450</v>
+        <v>9800</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>05:57:00</t>
+          <t>02:43:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-06-10</t>
+          <t>2026-06-11</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -8766,7 +9016,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BROWSER_20260611_00</t>
+          <t>BROWSER_20260611_01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -8776,20 +9026,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-06-11 09:43:00</t>
+          <t>2026-06-11 11:03:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-06-11 16:07:06</t>
+          <t>2026-06-11 13:47:59</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23046</v>
+        <v>9899</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>06:24:00</t>
+          <t>02:44:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -8816,20 +9066,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-06-12 12:51:00</t>
+          <t>2026-06-12 08:48:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-06-12 19:37:24</t>
+          <t>2026-06-12 11:46:09</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24384</v>
+        <v>10689</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>06:46:00</t>
+          <t>02:58:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -8846,7 +9096,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20260615_00</t>
+          <t>BROWSER_20260612_01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -8856,25 +9106,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-06-15 10:06:00</t>
+          <t>2026-06-12 13:24:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-06-15 16:59:15</t>
+          <t>2026-06-12 16:45:40</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24795</v>
+        <v>12100</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>06:53:00</t>
+          <t>03:21:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-06-15</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -8886,7 +9136,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20260616_00</t>
+          <t>BROWSER_20260615_00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -8896,25 +9146,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-06-16 08:15:00</t>
+          <t>2026-06-15 14:48:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-06-16 14:44:57</t>
+          <t>2026-06-15 20:30:02</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23397</v>
+        <v>20522</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>06:29:00</t>
+          <t>05:42:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-15</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -8926,7 +9176,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BROWSER_20260617_00</t>
+          <t>BROWSER_20260616_00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -8936,25 +9186,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-06-17 15:53:00</t>
+          <t>2026-06-16 13:08:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-06-17 18:40:15</t>
+          <t>2026-06-16 19:09:38</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10035</v>
+        <v>21698</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>02:47:00</t>
+          <t>06:01:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -8966,7 +9216,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BROWSER_20260617_01</t>
+          <t>BROWSER_20260617_00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -8976,20 +9226,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-06-17 15:26:00</t>
+          <t>2026-06-17 14:40:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-06-17 18:08:22</t>
+          <t>2026-06-17 20:45:10</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9742</v>
+        <v>21910</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>02:42:00</t>
+          <t>06:05:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -9016,20 +9266,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-06-18 09:25:00</t>
+          <t>2026-06-18 10:29:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-06-18 12:44:18</t>
+          <t>2026-06-18 13:44:08</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11958</v>
+        <v>11708</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>03:19:00</t>
+          <t>03:15:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -9056,20 +9306,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-06-18 12:54:00</t>
+          <t>2026-06-18 11:29:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-06-18 16:09:59</t>
+          <t>2026-06-18 14:08:24</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>11759</v>
+        <v>9564</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>03:15:00</t>
+          <t>02:39:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -9096,20 +9346,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-06-19 14:31:00</t>
+          <t>2026-06-19 11:03:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-06-19 20:07:16</t>
+          <t>2026-06-19 14:10:01</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20176</v>
+        <v>11221</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05:36:00</t>
+          <t>03:07:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -9126,7 +9376,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BROWSER_20260622_00</t>
+          <t>BROWSER_20260619_01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -9136,25 +9386,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-06-22 10:46:00</t>
+          <t>2026-06-19 10:50:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-06-22 16:00:50</t>
+          <t>2026-06-19 13:50:40</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>18890</v>
+        <v>10840</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>05:14:00</t>
+          <t>03:00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -9166,7 +9416,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BROWSER_20260623_00</t>
+          <t>BROWSER_20260622_00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -9176,25 +9426,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2026-06-23 14:57:00</t>
+          <t>2026-06-22 13:56:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-06-23 18:09:53</t>
+          <t>2026-06-22 16:43:55</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11573</v>
+        <v>10075</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>03:12:00</t>
+          <t>02:47:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-06-23</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -9206,7 +9456,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BROWSER_20260623_01</t>
+          <t>BROWSER_20260622_01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -9216,25 +9466,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2026-06-23 12:37:00</t>
+          <t>2026-06-22 13:31:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-06-23 15:54:09</t>
+          <t>2026-06-22 16:31:36</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>11829</v>
+        <v>10836</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>03:17:00</t>
+          <t>03:00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-06-23</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -9246,38 +9496,118 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>BROWSER_20260623_00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2026-06-23 12:22:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2026-06-23 15:16:29</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>10469</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>02:54:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2026-06-23</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BROWSER_20260623_01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2026-06-23 11:54:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2026-06-23 15:01:22</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>11242</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>03:07:00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2026-06-23</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>BROWSER_20260624_00</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2026-06-24 15:19:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2026-06-24 20:23:43</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>18283</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>05:04:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2026-06-24 12:26:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2026-06-24 18:37:44</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>22304</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>06:11:00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2026-06-24</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Browser_Session</t>
         </is>
